--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>731535.3113013981</v>
+        <v>729259.1117009345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10443029.44672471</v>
+        <v>10443029.4467247</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -673,10 +673,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>169.6561230108597</v>
+        <v>62.68577655226962</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -715,10 +715,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.72290806889441</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>183.6065344584879</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>300.9575343261988</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>172.8475062999353</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>94.28860265807207</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.5033668008612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1353,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.82191382331</v>
+        <v>139.3073406622578</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.2633093513507</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.3988639318134</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4243598276621</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>219.0461934970413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I12" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2104727349704</v>
+        <v>67.08310136521862</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>163.0690401848928</v>
+        <v>279.9501251923148</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.98855205819915</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>230.0195040620264</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>216.3988639318134</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4243598276621</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1706,7 +1706,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I15" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.5432347184186</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.2104727349704</v>
       </c>
       <c r="H16" t="n">
         <v>144.8447323579683</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>76.30010125883089</v>
       </c>
       <c r="T16" t="n">
         <v>235.5833899829873</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>408.9593025511774</v>
+        <v>99.84010284132094</v>
       </c>
       <c r="G17" t="n">
-        <v>403.82191382331</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.4109331251255</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>53.91037641808438</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.2633093513507</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.4243598276621</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I18" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>163.8669647266466</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.1248189852743</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>235.5833899829873</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3055928679607</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.207059814384282</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>403.82191382331</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>40.39502321397722</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I21" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.2104727349704</v>
       </c>
       <c r="H22" t="n">
-        <v>116.5794989491153</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T22" t="n">
         <v>235.5833899829873</v>
@@ -2298,16 +2298,16 @@
         <v>279.9501251923148</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>113.6821804984564</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I24" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>87.65654430132494</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>136.9452393261169</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>235.5833899829873</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798638</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2575,7 +2575,7 @@
         <v>299.4109331251255</v>
       </c>
       <c r="I26" t="n">
-        <v>53.91037641808438</v>
+        <v>53.91037641808565</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I27" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.63762408493123</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387138965</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.7115101736757</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I28" t="n">
         <v>104.1334315251068</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>178.1248189852743</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>235.5833899829873</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I30" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2104727349704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>163.8669647266468</v>
       </c>
       <c r="T31" t="n">
-        <v>163.0690401848928</v>
+        <v>235.5833899829873</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9501251923148</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078714</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213922</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I33" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>41.86012706826789</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>143.7915335213282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.8447323579683</v>
       </c>
       <c r="I34" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.89970237266023</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>279.9501251923148</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258506</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>403.82191382331</v>
@@ -3365,7 +3365,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I36" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.12036456850751</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I37" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.1248189852743</v>
+        <v>35.46250298488177</v>
       </c>
       <c r="T37" t="n">
         <v>235.5833899829873</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>216.3988639318134</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4243598276621</v>
+        <v>254.4243598276643</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I39" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0.8821500961322345</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2104727349704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>135.7682362217519</v>
+        <v>235.5833899829873</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9501251923148</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078714</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>403.8219138233112</v>
+        <v>403.82191382331</v>
       </c>
       <c r="H41" t="n">
         <v>299.4109331251255</v>
@@ -3839,7 +3839,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I42" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.2104727349704</v>
       </c>
       <c r="H43" t="n">
-        <v>144.8447323579683</v>
+        <v>111.9036813712306</v>
       </c>
       <c r="I43" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>163.0690401848928</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>235.5833899829873</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9501251923148</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>379.9226978561846</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4076,7 +4076,7 @@
         <v>65.80716442834385</v>
       </c>
       <c r="I45" t="n">
-        <v>5.452220457136875</v>
+        <v>5.452220457136876</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>67.08310136521882</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2104727349704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.89970237266495</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>178.1248189852743</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>235.5833899829873</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9501251923148</v>
       </c>
       <c r="V46" t="n">
-        <v>21.55498388798543</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.2842014970884</v>
+        <v>536.1418438606936</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2000148507626</v>
+        <v>530.0576572143677</v>
       </c>
       <c r="D2" t="n">
-        <v>326.7764889842272</v>
+        <v>529.6341313478323</v>
       </c>
       <c r="E2" t="n">
-        <v>316.476677541528</v>
+        <v>519.334319905133</v>
       </c>
       <c r="F2" t="n">
-        <v>299.4866695356196</v>
+        <v>502.3443118992246</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211738</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211738</v>
+        <v>946.3630235251831</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1050.354217106306</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>879.2608446680224</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>719.7661999909324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1901.862513360013</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1662.313774336715</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1379.515626882839</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1105.629881822361</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.629881822361</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>1105.629881822361</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.629881822361</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1066.588781804577</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>656.4641911178468</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>432.1143577329317</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.817095773278</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>874.2236550662728</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>635.8797929259563</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>635.8797929259563</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.25049765783463</v>
+        <v>1374.748391933457</v>
       </c>
       <c r="C8" t="n">
-        <v>74.16631101150881</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1123.868675817053</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W8" t="n">
-        <v>740.1083749522213</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X8" t="n">
-        <v>339.4649771211738</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.43127328192004</v>
+        <v>1380.929167557543</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>690.384199457534</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1541.803011918786</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1355.411243798696</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1115.862504775398</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>833.0643573215223</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>559.1786122610442</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>280.1089477699186</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>925.1513464045956</v>
+        <v>1068.089499554909</v>
       </c>
       <c r="C11" t="n">
-        <v>925.1513464045956</v>
+        <v>657.9649088681794</v>
       </c>
       <c r="D11" t="n">
-        <v>925.1513464045956</v>
+        <v>657.9649088681794</v>
       </c>
       <c r="E11" t="n">
-        <v>925.1513464045956</v>
+        <v>657.9649088681794</v>
       </c>
       <c r="F11" t="n">
-        <v>504.1209343582833</v>
+        <v>236.9344968218669</v>
       </c>
       <c r="G11" t="n">
         <v>96.22001130443476</v>
@@ -5041,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>364.7743897160559</v>
       </c>
       <c r="K11" t="n">
-        <v>427.7143468707936</v>
+        <v>881.6173243823812</v>
       </c>
       <c r="L11" t="n">
-        <v>944.5572815371189</v>
+        <v>1398.460259048707</v>
       </c>
       <c r="M11" t="n">
-        <v>994.5863013833869</v>
+        <v>1448.489278894974</v>
       </c>
       <c r="N11" t="n">
-        <v>1047.293435467925</v>
+        <v>1501.196412979512</v>
       </c>
       <c r="O11" t="n">
-        <v>1564.13637013425</v>
+        <v>1545.565484291965</v>
       </c>
       <c r="P11" t="n">
-        <v>1588.031440636807</v>
+        <v>1679.525567888509</v>
       </c>
       <c r="Q11" t="n">
-        <v>1996.760154228401</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1971.826696276718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1753.241985234482</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="U11" t="n">
-        <v>1496.247682378258</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="V11" t="n">
-        <v>1146.410127714738</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="W11" t="n">
-        <v>925.1513464045956</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="X11" t="n">
-        <v>925.1513464045956</v>
+        <v>1469.026172606819</v>
       </c>
       <c r="Y11" t="n">
-        <v>925.1513464045956</v>
+        <v>1068.089499554909</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>275.5689464094781</v>
       </c>
       <c r="K12" t="n">
-        <v>558.6080202959273</v>
+        <v>792.4118810758034</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.450954962253</v>
+        <v>831.0630247754552</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.394548212842</v>
+        <v>884.0066180260451</v>
       </c>
       <c r="N12" t="n">
-        <v>1645.237482879168</v>
+        <v>944.1869718422773</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.126315115462</v>
+        <v>1461.029906508603</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.259018724992</v>
+        <v>1596.534306802332</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.259018724992</v>
+        <v>2001.761630111014</v>
       </c>
       <c r="R12" t="n">
         <v>2058.259018724992</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1116.267403986313</v>
+        <v>445.2502924070101</v>
       </c>
       <c r="C13" t="n">
-        <v>945.1740315480295</v>
+        <v>274.1569199687266</v>
       </c>
       <c r="D13" t="n">
-        <v>785.6793868709394</v>
+        <v>274.1569199687266</v>
       </c>
       <c r="E13" t="n">
-        <v>624.7685717392588</v>
+        <v>274.1569199687266</v>
       </c>
       <c r="F13" t="n">
-        <v>460.1374458498501</v>
+        <v>109.5257940793178</v>
       </c>
       <c r="G13" t="n">
-        <v>293.2581804609911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>146.9503699983968</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>81.56407314572168</v>
+        <v>81.56407314572166</v>
       </c>
       <c r="K13" t="n">
         <v>278.3764084618157</v>
@@ -5232,19 +5232,19 @@
         <v>1931.762873338871</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.046671131909</v>
+        <v>1648.98496910421</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.046671131909</v>
+        <v>1375.099224043732</v>
       </c>
       <c r="W13" t="n">
-        <v>1767.046671131909</v>
+        <v>1096.029559552606</v>
       </c>
       <c r="X13" t="n">
-        <v>1528.702808991593</v>
+        <v>857.6856974122898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1303.967110380357</v>
+        <v>632.9499988010544</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.8896763163319</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>274.1080190255883</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5278,28 +5278,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>364.7743897160559</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66914421042318</v>
+        <v>379.678448296877</v>
       </c>
       <c r="L14" t="n">
-        <v>551.4416073971374</v>
+        <v>413.1134644258618</v>
       </c>
       <c r="M14" t="n">
-        <v>601.4706272434054</v>
+        <v>463.1424842721297</v>
       </c>
       <c r="N14" t="n">
-        <v>1118.313561909731</v>
+        <v>979.985418938455</v>
       </c>
       <c r="O14" t="n">
-        <v>1162.682633222184</v>
+        <v>1496.82835360478</v>
       </c>
       <c r="P14" t="n">
-        <v>1679.525567888509</v>
+        <v>1588.031440636807</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.760154228401</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5311,19 +5311,19 @@
         <v>1869.669570437866</v>
       </c>
       <c r="U14" t="n">
-        <v>1612.675267581642</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="V14" t="n">
-        <v>1262.837712918123</v>
+        <v>1869.669570437866</v>
       </c>
       <c r="W14" t="n">
-        <v>879.0774120532915</v>
+        <v>1485.909269573035</v>
       </c>
       <c r="X14" t="n">
-        <v>879.0774120532915</v>
+        <v>1085.265871741988</v>
       </c>
       <c r="Y14" t="n">
-        <v>478.1407390013816</v>
+        <v>684.3291986900778</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>275.5689464094781</v>
       </c>
       <c r="K15" t="n">
-        <v>558.6080202959273</v>
+        <v>792.4118810758034</v>
       </c>
       <c r="L15" t="n">
-        <v>597.2591639955791</v>
+        <v>1309.254815742129</v>
       </c>
       <c r="M15" t="n">
-        <v>995.4404457828117</v>
+        <v>1362.198408992719</v>
       </c>
       <c r="N15" t="n">
-        <v>1512.283380449137</v>
+        <v>1422.378762808951</v>
       </c>
       <c r="O15" t="n">
-        <v>2029.126315115462</v>
+        <v>1468.433012308888</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.259018724992</v>
+        <v>1596.534306802332</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.259018724992</v>
+        <v>2001.761630111014</v>
       </c>
       <c r="R15" t="n">
         <v>2058.259018724992</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.9837112238768</v>
+        <v>354.9521614810553</v>
       </c>
       <c r="C16" t="n">
-        <v>348.9837112238768</v>
+        <v>354.9521614810553</v>
       </c>
       <c r="D16" t="n">
-        <v>348.9837112238768</v>
+        <v>354.9521614810553</v>
       </c>
       <c r="E16" t="n">
-        <v>188.0728960921963</v>
+        <v>354.9521614810553</v>
       </c>
       <c r="F16" t="n">
-        <v>188.0728960921963</v>
+        <v>354.9521614810553</v>
       </c>
       <c r="G16" t="n">
         <v>188.0728960921963</v>
@@ -5436,7 +5436,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>81.56407314572168</v>
+        <v>81.56407314572166</v>
       </c>
       <c r="K16" t="n">
         <v>278.3764084618157</v>
@@ -5463,25 +5463,25 @@
         <v>1931.762873338871</v>
       </c>
       <c r="S16" t="n">
-        <v>1931.762873338871</v>
+        <v>1854.692063986517</v>
       </c>
       <c r="T16" t="n">
-        <v>1693.799853154036</v>
+        <v>1616.729043801681</v>
       </c>
       <c r="U16" t="n">
-        <v>1411.021948919374</v>
+        <v>1333.95113956702</v>
       </c>
       <c r="V16" t="n">
-        <v>1137.136203858896</v>
+        <v>1060.065394506542</v>
       </c>
       <c r="W16" t="n">
-        <v>858.0665393677707</v>
+        <v>780.9957300154163</v>
       </c>
       <c r="X16" t="n">
-        <v>619.7226772274541</v>
+        <v>542.6518678750997</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.9869786162188</v>
+        <v>542.6518678750997</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1277.096428763703</v>
+        <v>903.9678159249565</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.096428763703</v>
+        <v>903.9678159249565</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.096428763703</v>
+        <v>499.5038860180171</v>
       </c>
       <c r="E17" t="n">
-        <v>862.7562132805995</v>
+        <v>499.5038860180171</v>
       </c>
       <c r="F17" t="n">
-        <v>449.6660086834505</v>
+        <v>398.65529728941</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>398.65529728941</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>96.22001130443476</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>364.7743897160559</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>881.6173243823812</v>
+        <v>56.66914421042316</v>
       </c>
       <c r="L17" t="n">
-        <v>1398.460259048707</v>
+        <v>573.5120788767484</v>
       </c>
       <c r="M17" t="n">
-        <v>1915.303193715032</v>
+        <v>623.5410987230164</v>
       </c>
       <c r="N17" t="n">
-        <v>1968.010327799569</v>
+        <v>1140.384033389342</v>
       </c>
       <c r="O17" t="n">
-        <v>2012.379399112022</v>
+        <v>1657.226968055667</v>
       </c>
       <c r="P17" t="n">
-        <v>2036.27446961458</v>
+        <v>1681.122038558224</v>
       </c>
       <c r="Q17" t="n">
-        <v>2036.27446961458</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1971.826696276718</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1971.826696276718</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1714.832393420493</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1714.832393420493</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1714.832393420493</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1314.188995589446</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.317608428192</v>
+        <v>1314.188995589446</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>730.6318853892138</v>
+        <v>700.6366226341029</v>
       </c>
       <c r="C18" t="n">
-        <v>596.6368141381595</v>
+        <v>566.6415513830485</v>
       </c>
       <c r="D18" t="n">
-        <v>479.7396563575519</v>
+        <v>449.7443936024409</v>
       </c>
       <c r="E18" t="n">
-        <v>359.2468403498799</v>
+        <v>329.2515775947689</v>
       </c>
       <c r="F18" t="n">
-        <v>250.2869605323845</v>
+        <v>220.2916977772735</v>
       </c>
       <c r="G18" t="n">
-        <v>143.7395250367138</v>
+        <v>113.7442622816028</v>
       </c>
       <c r="H18" t="n">
-        <v>77.26764177576042</v>
+        <v>47.2723790206494</v>
       </c>
       <c r="I18" t="n">
-        <v>71.76034838471307</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76034838471307</v>
+        <v>275.5689464094781</v>
       </c>
       <c r="K18" t="n">
-        <v>86.5529768771443</v>
+        <v>290.3615749019093</v>
       </c>
       <c r="L18" t="n">
-        <v>603.3959115434695</v>
+        <v>329.0127186015611</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.238846209795</v>
+        <v>381.956311852151</v>
       </c>
       <c r="N18" t="n">
-        <v>1607.840005061953</v>
+        <v>562.8484374696812</v>
       </c>
       <c r="O18" t="n">
-        <v>1653.894254561891</v>
+        <v>1079.691372136007</v>
       </c>
       <c r="P18" t="n">
-        <v>1683.02695817142</v>
+        <v>1596.534306802332</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2001.761630111014</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.259018724992</v>
       </c>
       <c r="S18" t="n">
-        <v>1988.486806241825</v>
+        <v>1958.491543486714</v>
       </c>
       <c r="T18" t="n">
-        <v>1830.929242155155</v>
+        <v>1800.933979400044</v>
       </c>
       <c r="U18" t="n">
-        <v>1633.607554792715</v>
+        <v>1603.612292037604</v>
       </c>
       <c r="V18" t="n">
-        <v>1419.896027785749</v>
+        <v>1389.900765030638</v>
       </c>
       <c r="W18" t="n">
-        <v>1206.662859522078</v>
+        <v>1176.667596766967</v>
       </c>
       <c r="X18" t="n">
-        <v>1030.33687766097</v>
+        <v>1000.34161490586</v>
       </c>
       <c r="Y18" t="n">
-        <v>870.9349180248005</v>
+        <v>840.9396552696895</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.6609132075698</v>
+        <v>207.2872722221744</v>
       </c>
       <c r="C19" t="n">
-        <v>347.5675407692863</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>188.0728960921963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>188.0728960921963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>188.0728960921963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>188.0728960921963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5673,7 +5673,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>81.56407314572168</v>
+        <v>81.56407314572166</v>
       </c>
       <c r="K19" t="n">
         <v>278.3764084618157</v>
@@ -5697,28 +5697,28 @@
         <v>1931.762873338871</v>
       </c>
       <c r="R19" t="n">
-        <v>1863.177315386685</v>
+        <v>1931.762873338871</v>
       </c>
       <c r="S19" t="n">
-        <v>1683.2532558056</v>
+        <v>1931.762873338871</v>
       </c>
       <c r="T19" t="n">
-        <v>1445.290235620764</v>
+        <v>1693.799853154036</v>
       </c>
       <c r="U19" t="n">
-        <v>1162.512331386102</v>
+        <v>1411.021948919374</v>
       </c>
       <c r="V19" t="n">
-        <v>888.6265863256244</v>
+        <v>1137.136203858896</v>
       </c>
       <c r="W19" t="n">
-        <v>888.6265863256244</v>
+        <v>858.0665393677707</v>
       </c>
       <c r="X19" t="n">
-        <v>650.2827241853079</v>
+        <v>619.7226772274541</v>
       </c>
       <c r="Y19" t="n">
-        <v>518.6609132075698</v>
+        <v>394.9869786162188</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1277.389703984565</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.389703984565</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D20" t="n">
-        <v>872.9257740776259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E20" t="n">
-        <v>870.696420729763</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F20" t="n">
-        <v>449.6660086834505</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
         <v>41.76508562960205</v>
@@ -5752,22 +5752,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>364.7743897160559</v>
       </c>
       <c r="K20" t="n">
-        <v>459.9213900396888</v>
+        <v>379.678448296877</v>
       </c>
       <c r="L20" t="n">
-        <v>493.3564061686736</v>
+        <v>896.5213829632023</v>
       </c>
       <c r="M20" t="n">
-        <v>1010.199340834999</v>
+        <v>1030.673341644894</v>
       </c>
       <c r="N20" t="n">
-        <v>1527.042275501324</v>
+        <v>1547.516276311219</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>2064.359210977545</v>
       </c>
       <c r="P20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X20" t="n">
-        <v>1687.610883649055</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y20" t="n">
-        <v>1687.610883649055</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>275.5689464094781</v>
       </c>
       <c r="K21" t="n">
-        <v>439.9463674168346</v>
+        <v>792.4118810758034</v>
       </c>
       <c r="L21" t="n">
-        <v>478.5975111164864</v>
+        <v>831.0630247754552</v>
       </c>
       <c r="M21" t="n">
-        <v>995.4404457828117</v>
+        <v>884.0066180260451</v>
       </c>
       <c r="N21" t="n">
-        <v>1512.283380449137</v>
+        <v>944.1869718422773</v>
       </c>
       <c r="O21" t="n">
-        <v>2029.126315115462</v>
+        <v>1079.691372136007</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.259018724992</v>
+        <v>1596.534306802332</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.259018724992</v>
+        <v>2001.761630111014</v>
       </c>
       <c r="R21" t="n">
         <v>2058.259018724992</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.4014206640321</v>
+        <v>1116.267403986313</v>
       </c>
       <c r="C22" t="n">
-        <v>326.4014206640321</v>
+        <v>945.1740315480295</v>
       </c>
       <c r="D22" t="n">
-        <v>326.4014206640321</v>
+        <v>785.6793868709394</v>
       </c>
       <c r="E22" t="n">
-        <v>326.4014206640321</v>
+        <v>624.7685717392588</v>
       </c>
       <c r="F22" t="n">
-        <v>326.4014206640321</v>
+        <v>460.1374458498501</v>
       </c>
       <c r="G22" t="n">
-        <v>159.5221552751731</v>
+        <v>293.2581804609911</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960205</v>
+        <v>146.9503699983968</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>81.56407314572168</v>
+        <v>81.56407314572166</v>
       </c>
       <c r="K22" t="n">
         <v>278.3764084618157</v>
@@ -5934,28 +5934,28 @@
         <v>1931.762873338871</v>
       </c>
       <c r="R22" t="n">
-        <v>1863.177315386685</v>
+        <v>1931.762873338871</v>
       </c>
       <c r="S22" t="n">
-        <v>1863.177315386685</v>
+        <v>1751.838813757786</v>
       </c>
       <c r="T22" t="n">
-        <v>1625.214295201849</v>
+        <v>1513.875793572951</v>
       </c>
       <c r="U22" t="n">
-        <v>1342.436390967188</v>
+        <v>1231.097889338289</v>
       </c>
       <c r="V22" t="n">
-        <v>1068.55064590671</v>
+        <v>1231.097889338289</v>
       </c>
       <c r="W22" t="n">
-        <v>789.480981415584</v>
+        <v>1231.097889338289</v>
       </c>
       <c r="X22" t="n">
-        <v>551.1371192752674</v>
+        <v>1231.097889338289</v>
       </c>
       <c r="Y22" t="n">
-        <v>326.4014206640321</v>
+        <v>1116.267403986313</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2515.814690755402</v>
+        <v>2515.814690755404</v>
       </c>
       <c r="C23" t="n">
-        <v>2105.690100068672</v>
+        <v>2105.690100068674</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.226170161733</v>
+        <v>1701.226170161734</v>
       </c>
       <c r="E23" t="n">
-        <v>1286.88595467863</v>
+        <v>1286.885954678632</v>
       </c>
       <c r="F23" t="n">
-        <v>865.8555426323178</v>
+        <v>865.8555426323187</v>
       </c>
       <c r="G23" t="n">
         <v>457.9546195784696</v>
       </c>
       <c r="H23" t="n">
-        <v>155.5193335934936</v>
+        <v>155.5193335934937</v>
       </c>
       <c r="I23" t="n">
         <v>101.0644079186609</v>
@@ -5992,10 +5992,10 @@
         <v>424.0737120051148</v>
       </c>
       <c r="K23" t="n">
-        <v>1065.38229747146</v>
+        <v>469.8418997747387</v>
       </c>
       <c r="L23" t="n">
-        <v>1905.939257494899</v>
+        <v>1310.398859798178</v>
       </c>
       <c r="M23" t="n">
         <v>2229.103792848675</v>
@@ -6010,31 +6010,31 @@
         <v>4552.997555089751</v>
       </c>
       <c r="Q23" t="n">
-        <v>4961.726268681344</v>
+        <v>4961.726268681345</v>
       </c>
       <c r="R23" t="n">
-        <v>5053.220395933045</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="S23" t="n">
-        <v>4936.79281072966</v>
+        <v>4936.792810729661</v>
       </c>
       <c r="T23" t="n">
-        <v>4718.208099687425</v>
+        <v>4718.208099687426</v>
       </c>
       <c r="U23" t="n">
-        <v>4461.2137968312</v>
+        <v>4461.213796831202</v>
       </c>
       <c r="V23" t="n">
-        <v>4111.37624216768</v>
+        <v>4111.376242167682</v>
       </c>
       <c r="W23" t="n">
-        <v>3727.615941302849</v>
+        <v>3727.615941302851</v>
       </c>
       <c r="X23" t="n">
-        <v>3326.972543471801</v>
+        <v>3326.972543471803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2926.035870419892</v>
+        <v>2926.035870419893</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>101.0644079186609</v>
       </c>
       <c r="J24" t="n">
-        <v>101.0644079186609</v>
+        <v>242.8610136228998</v>
       </c>
       <c r="K24" t="n">
-        <v>115.8570364110921</v>
+        <v>768.7274233373989</v>
       </c>
       <c r="L24" t="n">
-        <v>154.5081801107439</v>
+        <v>1524.020117529079</v>
       </c>
       <c r="M24" t="n">
-        <v>1055.871482516921</v>
+        <v>1576.963710779669</v>
       </c>
       <c r="N24" t="n">
-        <v>2042.371387904584</v>
+        <v>1637.144064595901</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.425637404521</v>
+        <v>1683.198314095839</v>
       </c>
       <c r="P24" t="n">
-        <v>2117.558341014051</v>
+        <v>1712.331017705369</v>
       </c>
       <c r="Q24" t="n">
         <v>2117.558341014051</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3309.530418686371</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="C25" t="n">
-        <v>3309.530418686371</v>
+        <v>365.7443369645457</v>
       </c>
       <c r="D25" t="n">
-        <v>3309.530418686371</v>
+        <v>206.2496922874557</v>
       </c>
       <c r="E25" t="n">
-        <v>3309.530418686371</v>
+        <v>206.2496922874557</v>
       </c>
       <c r="F25" t="n">
-        <v>3309.530418686371</v>
+        <v>206.2496922874557</v>
       </c>
       <c r="G25" t="n">
-        <v>3309.530418686371</v>
+        <v>206.2496922874557</v>
       </c>
       <c r="H25" t="n">
-        <v>3163.222608223777</v>
+        <v>206.2496922874557</v>
       </c>
       <c r="I25" t="n">
-        <v>3163.222608223777</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J25" t="n">
-        <v>3203.021595739896</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K25" t="n">
-        <v>3399.83393105599</v>
+        <v>337.6757307508745</v>
       </c>
       <c r="L25" t="n">
-        <v>3713.809291444808</v>
+        <v>651.6510911396927</v>
       </c>
       <c r="M25" t="n">
-        <v>4060.091290838421</v>
+        <v>997.9330905333048</v>
       </c>
       <c r="N25" t="n">
-        <v>4396.592256943733</v>
+        <v>1334.434056638618</v>
       </c>
       <c r="O25" t="n">
-        <v>4707.565903112873</v>
+        <v>1645.407702807758</v>
       </c>
       <c r="P25" t="n">
-        <v>4957.234077402287</v>
+        <v>1895.075877097172</v>
       </c>
       <c r="Q25" t="n">
-        <v>5053.220395933045</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="R25" t="n">
-        <v>4984.634837980859</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S25" t="n">
-        <v>4846.306313409023</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T25" t="n">
-        <v>4608.343293224188</v>
+        <v>1753.099175443095</v>
       </c>
       <c r="U25" t="n">
-        <v>4325.565388989527</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="V25" t="n">
-        <v>4051.679643929048</v>
+        <v>1196.435526147955</v>
       </c>
       <c r="W25" t="n">
-        <v>3772.609979437923</v>
+        <v>917.3658616568298</v>
       </c>
       <c r="X25" t="n">
-        <v>3534.266117297606</v>
+        <v>679.0219995165132</v>
       </c>
       <c r="Y25" t="n">
-        <v>3309.530418686371</v>
+        <v>454.2863009052779</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2515.814690755404</v>
       </c>
       <c r="C26" t="n">
-        <v>2105.690100068673</v>
+        <v>2105.690100068674</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.226170161733</v>
+        <v>1701.226170161734</v>
       </c>
       <c r="E26" t="n">
-        <v>1286.88595467863</v>
+        <v>1286.885954678631</v>
       </c>
       <c r="F26" t="n">
-        <v>865.8555426323173</v>
+        <v>865.8555426323187</v>
       </c>
       <c r="G26" t="n">
-        <v>457.9546195784689</v>
+        <v>457.9546195784702</v>
       </c>
       <c r="H26" t="n">
-        <v>155.5193335934936</v>
+        <v>155.5193335934949</v>
       </c>
       <c r="I26" t="n">
         <v>101.0644079186609</v>
@@ -6232,34 +6232,34 @@
         <v>1065.38229747146</v>
       </c>
       <c r="L26" t="n">
-        <v>1719.127573389771</v>
+        <v>1905.939257494899</v>
       </c>
       <c r="M26" t="n">
-        <v>2637.832506440268</v>
+        <v>2229.103792848675</v>
       </c>
       <c r="N26" t="n">
-        <v>3535.703825012476</v>
+        <v>3126.975111420883</v>
       </c>
       <c r="O26" t="n">
-        <v>4315.961630611559</v>
+        <v>3907.232917019966</v>
       </c>
       <c r="P26" t="n">
-        <v>4961.726268681344</v>
+        <v>4552.997555089751</v>
       </c>
       <c r="Q26" t="n">
-        <v>4961.726268681344</v>
+        <v>4961.726268681345</v>
       </c>
       <c r="R26" t="n">
-        <v>5053.220395933045</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="S26" t="n">
-        <v>4936.792810729661</v>
+        <v>4936.792810729662</v>
       </c>
       <c r="T26" t="n">
-        <v>4718.208099687426</v>
+        <v>4718.208099687427</v>
       </c>
       <c r="U26" t="n">
-        <v>4461.213796831201</v>
+        <v>4461.213796831202</v>
       </c>
       <c r="V26" t="n">
         <v>4111.376242167682</v>
@@ -6308,25 +6308,25 @@
         <v>334.868268698537</v>
       </c>
       <c r="K27" t="n">
-        <v>349.6608971909682</v>
+        <v>860.7346784130361</v>
       </c>
       <c r="L27" t="n">
-        <v>388.31204089062</v>
+        <v>899.3858221126879</v>
       </c>
       <c r="M27" t="n">
-        <v>441.2556341412099</v>
+        <v>952.3294153632778</v>
       </c>
       <c r="N27" t="n">
-        <v>876.013009840007</v>
+        <v>1012.50976917951</v>
       </c>
       <c r="O27" t="n">
-        <v>1683.198314095839</v>
+        <v>1058.564018679448</v>
       </c>
       <c r="P27" t="n">
-        <v>1712.331017705369</v>
+        <v>1703.119653430283</v>
       </c>
       <c r="Q27" t="n">
-        <v>2117.558341014051</v>
+        <v>2108.346976738965</v>
       </c>
       <c r="R27" t="n">
         <v>2117.558341014051</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.343064725735</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="C28" t="n">
-        <v>206.2496922874557</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="D28" t="n">
-        <v>206.2496922874557</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="E28" t="n">
-        <v>206.2496922874557</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="F28" t="n">
-        <v>206.2496922874557</v>
+        <v>352.5575027500499</v>
       </c>
       <c r="G28" t="n">
-        <v>206.2496922874557</v>
+        <v>352.5575027500499</v>
       </c>
       <c r="H28" t="n">
         <v>206.2496922874557</v>
@@ -6384,7 +6384,7 @@
         <v>101.0644079186609</v>
       </c>
       <c r="J28" t="n">
-        <v>140.8633954347805</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K28" t="n">
         <v>337.6757307508745</v>
@@ -6408,28 +6408,28 @@
         <v>1991.062195627931</v>
       </c>
       <c r="R28" t="n">
-        <v>1922.476637675744</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S28" t="n">
-        <v>1742.552578094659</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T28" t="n">
-        <v>1504.589557909823</v>
+        <v>1753.099175443095</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.811653675162</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="V28" t="n">
-        <v>947.9259086146835</v>
+        <v>1196.435526147955</v>
       </c>
       <c r="W28" t="n">
-        <v>668.8562441235579</v>
+        <v>917.3658616568298</v>
       </c>
       <c r="X28" t="n">
-        <v>430.5123819832413</v>
+        <v>679.0219995165132</v>
       </c>
       <c r="Y28" t="n">
-        <v>430.5123819832413</v>
+        <v>454.2863009052779</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2515.814690755402</v>
+        <v>2515.814690755404</v>
       </c>
       <c r="C29" t="n">
-        <v>2105.690100068672</v>
+        <v>2105.690100068674</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.226170161733</v>
+        <v>1701.226170161734</v>
       </c>
       <c r="E29" t="n">
-        <v>1286.88595467863</v>
+        <v>1286.885954678632</v>
       </c>
       <c r="F29" t="n">
-        <v>865.8555426323178</v>
+        <v>865.8555426323187</v>
       </c>
       <c r="G29" t="n">
         <v>457.9546195784696</v>
       </c>
       <c r="H29" t="n">
-        <v>155.5193335934936</v>
+        <v>155.5193335934946</v>
       </c>
       <c r="I29" t="n">
         <v>101.0644079186609</v>
@@ -6478,37 +6478,37 @@
         <v>3722.515509117606</v>
       </c>
       <c r="O29" t="n">
-        <v>4502.773314716689</v>
+        <v>3907.232917019966</v>
       </c>
       <c r="P29" t="n">
         <v>4552.997555089751</v>
       </c>
       <c r="Q29" t="n">
-        <v>4961.726268681344</v>
+        <v>4961.726268681345</v>
       </c>
       <c r="R29" t="n">
-        <v>5053.220395933045</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="S29" t="n">
-        <v>4936.79281072966</v>
+        <v>4936.792810729661</v>
       </c>
       <c r="T29" t="n">
-        <v>4718.208099687425</v>
+        <v>4718.208099687426</v>
       </c>
       <c r="U29" t="n">
-        <v>4461.2137968312</v>
+        <v>4461.213796831202</v>
       </c>
       <c r="V29" t="n">
-        <v>4111.37624216768</v>
+        <v>4111.376242167682</v>
       </c>
       <c r="W29" t="n">
-        <v>3727.615941302849</v>
+        <v>3727.615941302851</v>
       </c>
       <c r="X29" t="n">
-        <v>3326.972543471801</v>
+        <v>3326.972543471803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2926.035870419892</v>
+        <v>2926.035870419893</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>101.0644079186609</v>
       </c>
       <c r="K30" t="n">
-        <v>626.9308176331601</v>
+        <v>115.8570364110922</v>
       </c>
       <c r="L30" t="n">
-        <v>665.5819613328119</v>
+        <v>552.6934549405613</v>
       </c>
       <c r="M30" t="n">
-        <v>718.5255545834019</v>
+        <v>605.6370481911512</v>
       </c>
       <c r="N30" t="n">
-        <v>778.7059083996342</v>
+        <v>665.8174020073834</v>
       </c>
       <c r="O30" t="n">
         <v>1473.002706263215</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1175.566726275372</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="C31" t="n">
-        <v>1004.473353837088</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="D31" t="n">
-        <v>844.9787091599983</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="E31" t="n">
-        <v>684.0678940283177</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="F31" t="n">
-        <v>519.436768138909</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="G31" t="n">
-        <v>352.5575027500499</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="H31" t="n">
-        <v>206.2496922874557</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I31" t="n">
         <v>101.0644079186609</v>
       </c>
       <c r="J31" t="n">
-        <v>140.8633954347805</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K31" t="n">
         <v>337.6757307508745</v>
@@ -6648,25 +6648,25 @@
         <v>1991.062195627931</v>
       </c>
       <c r="S31" t="n">
-        <v>1991.062195627931</v>
+        <v>1825.540009035358</v>
       </c>
       <c r="T31" t="n">
-        <v>1826.345993420968</v>
+        <v>1587.576988850522</v>
       </c>
       <c r="U31" t="n">
-        <v>1826.345993420968</v>
+        <v>1304.799084615861</v>
       </c>
       <c r="V31" t="n">
-        <v>1826.345993420968</v>
+        <v>1030.913339555383</v>
       </c>
       <c r="W31" t="n">
-        <v>1826.345993420968</v>
+        <v>751.8436750642572</v>
       </c>
       <c r="X31" t="n">
-        <v>1588.002131280652</v>
+        <v>513.4998129239407</v>
       </c>
       <c r="Y31" t="n">
-        <v>1363.266432669416</v>
+        <v>288.7641143127053</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2515.814690755402</v>
+        <v>2515.814690755404</v>
       </c>
       <c r="C32" t="n">
-        <v>2105.690100068673</v>
+        <v>2105.690100068674</v>
       </c>
       <c r="D32" t="n">
         <v>1701.226170161733</v>
@@ -6703,19 +6703,19 @@
         <v>424.0737120051148</v>
       </c>
       <c r="K32" t="n">
-        <v>1065.38229747146</v>
+        <v>469.8418997747387</v>
       </c>
       <c r="L32" t="n">
-        <v>1905.939257494899</v>
+        <v>1310.398859798178</v>
       </c>
       <c r="M32" t="n">
-        <v>2824.644190545397</v>
+        <v>2229.103792848675</v>
       </c>
       <c r="N32" t="n">
-        <v>3722.515509117606</v>
+        <v>3126.975111420883</v>
       </c>
       <c r="O32" t="n">
-        <v>4502.773314716689</v>
+        <v>3907.232917019966</v>
       </c>
       <c r="P32" t="n">
         <v>4552.997555089751</v>
@@ -6745,7 +6745,7 @@
         <v>3326.972543471803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2926.035870419892</v>
+        <v>2926.035870419893</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>101.0644079186609</v>
       </c>
       <c r="J33" t="n">
-        <v>334.868268698537</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="K33" t="n">
-        <v>349.6608971909682</v>
+        <v>626.93081763316</v>
       </c>
       <c r="L33" t="n">
-        <v>388.31204089062</v>
+        <v>665.5819613328118</v>
       </c>
       <c r="M33" t="n">
-        <v>1341.22135573681</v>
+        <v>961.5407796383635</v>
       </c>
       <c r="N33" t="n">
-        <v>1401.401709553042</v>
+        <v>1021.721133454596</v>
       </c>
       <c r="O33" t="n">
-        <v>1626.700925481861</v>
+        <v>1067.775382954533</v>
       </c>
       <c r="P33" t="n">
-        <v>1655.833629091391</v>
+        <v>1712.331017705369</v>
       </c>
       <c r="Q33" t="n">
-        <v>2061.060952400073</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="R33" t="n">
         <v>2117.558341014051</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4051.458508556088</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="C34" t="n">
-        <v>3880.365136117804</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="D34" t="n">
-        <v>3720.870491440714</v>
+        <v>454.2863009052779</v>
       </c>
       <c r="E34" t="n">
-        <v>3559.959676309034</v>
+        <v>412.0033442706639</v>
       </c>
       <c r="F34" t="n">
-        <v>3559.959676309034</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="G34" t="n">
-        <v>3414.715703055167</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="H34" t="n">
-        <v>3268.407892592572</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I34" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J34" t="n">
-        <v>3203.021595739897</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K34" t="n">
-        <v>3399.833931055991</v>
+        <v>337.6757307508745</v>
       </c>
       <c r="L34" t="n">
-        <v>3713.809291444809</v>
+        <v>651.6510911396927</v>
       </c>
       <c r="M34" t="n">
-        <v>4060.091290838422</v>
+        <v>997.9330905333048</v>
       </c>
       <c r="N34" t="n">
-        <v>4396.592256943734</v>
+        <v>1334.434056638618</v>
       </c>
       <c r="O34" t="n">
-        <v>4707.565903112874</v>
+        <v>1645.407702807758</v>
       </c>
       <c r="P34" t="n">
-        <v>4957.234077402288</v>
+        <v>1895.075877097172</v>
       </c>
       <c r="Q34" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="R34" t="n">
-        <v>4984.634837980864</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S34" t="n">
-        <v>4984.634837980864</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T34" t="n">
-        <v>4746.671817796028</v>
+        <v>1753.099175443095</v>
       </c>
       <c r="U34" t="n">
-        <v>4463.893913561367</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="V34" t="n">
-        <v>4463.893913561367</v>
+        <v>1196.435526147955</v>
       </c>
       <c r="W34" t="n">
-        <v>4463.893913561367</v>
+        <v>917.3658616568298</v>
       </c>
       <c r="X34" t="n">
-        <v>4463.893913561367</v>
+        <v>679.0219995165132</v>
       </c>
       <c r="Y34" t="n">
-        <v>4239.158214950132</v>
+        <v>454.2863009052779</v>
       </c>
     </row>
     <row r="35">
@@ -6922,31 +6922,31 @@
         <v>1701.226170161734</v>
       </c>
       <c r="E35" t="n">
-        <v>1286.885954678631</v>
+        <v>1286.885954678632</v>
       </c>
       <c r="F35" t="n">
-        <v>865.8555426323175</v>
+        <v>865.8555426323187</v>
       </c>
       <c r="G35" t="n">
-        <v>457.954619578469</v>
+        <v>457.9546195784696</v>
       </c>
       <c r="H35" t="n">
-        <v>155.5193335934937</v>
+        <v>155.5193335934946</v>
       </c>
       <c r="I35" t="n">
         <v>101.0644079186609</v>
       </c>
       <c r="J35" t="n">
-        <v>101.0644079186609</v>
+        <v>424.0737120051148</v>
       </c>
       <c r="K35" t="n">
-        <v>742.3729933850065</v>
+        <v>1065.38229747146</v>
       </c>
       <c r="L35" t="n">
-        <v>1310.398859798178</v>
+        <v>1905.939257494899</v>
       </c>
       <c r="M35" t="n">
-        <v>2229.103792848675</v>
+        <v>2824.644190545397</v>
       </c>
       <c r="N35" t="n">
         <v>3126.975111420883</v>
@@ -6964,10 +6964,10 @@
         <v>5053.220395933046</v>
       </c>
       <c r="S35" t="n">
-        <v>4936.792810729662</v>
+        <v>4936.792810729661</v>
       </c>
       <c r="T35" t="n">
-        <v>4718.208099687427</v>
+        <v>4718.208099687426</v>
       </c>
       <c r="U35" t="n">
         <v>4461.213796831202</v>
@@ -6976,7 +6976,7 @@
         <v>4111.376242167682</v>
       </c>
       <c r="W35" t="n">
-        <v>3727.61594130285</v>
+        <v>3727.615941302851</v>
       </c>
       <c r="X35" t="n">
         <v>3326.972543471803</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3695.597999842158</v>
+        <v>759.9359449231617</v>
       </c>
       <c r="C36" t="n">
-        <v>3561.602928591104</v>
+        <v>625.9408736721074</v>
       </c>
       <c r="D36" t="n">
-        <v>3444.705770810496</v>
+        <v>509.0437158914998</v>
       </c>
       <c r="E36" t="n">
-        <v>3324.212954802824</v>
+        <v>388.5508998838278</v>
       </c>
       <c r="F36" t="n">
-        <v>3215.253074985329</v>
+        <v>279.5910200663324</v>
       </c>
       <c r="G36" t="n">
-        <v>3108.705639489659</v>
+        <v>173.0435845706617</v>
       </c>
       <c r="H36" t="n">
-        <v>3042.233756228705</v>
+        <v>106.5717013097083</v>
       </c>
       <c r="I36" t="n">
-        <v>3036.726462837658</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J36" t="n">
-        <v>3270.530323617534</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="K36" t="n">
-        <v>3285.322952109965</v>
+        <v>115.8570364110922</v>
       </c>
       <c r="L36" t="n">
-        <v>3323.974095809617</v>
+        <v>154.5081801107439</v>
       </c>
       <c r="M36" t="n">
-        <v>3376.917689060207</v>
+        <v>1107.417494956934</v>
       </c>
       <c r="N36" t="n">
-        <v>4363.417594447869</v>
+        <v>2042.371387904584</v>
       </c>
       <c r="O36" t="n">
-        <v>4967.590303709539</v>
+        <v>2088.425637404521</v>
       </c>
       <c r="P36" t="n">
-        <v>4996.723007319069</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="Q36" t="n">
-        <v>4996.723007319069</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="R36" t="n">
-        <v>5053.220395933046</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="S36" t="n">
-        <v>4953.452920694769</v>
+        <v>2017.790865775773</v>
       </c>
       <c r="T36" t="n">
-        <v>4795.895356608099</v>
+        <v>1860.233301689103</v>
       </c>
       <c r="U36" t="n">
-        <v>4598.573669245659</v>
+        <v>1662.911614326663</v>
       </c>
       <c r="V36" t="n">
-        <v>4384.862142238693</v>
+        <v>1449.200087319697</v>
       </c>
       <c r="W36" t="n">
-        <v>4171.628973975022</v>
+        <v>1235.966919056026</v>
       </c>
       <c r="X36" t="n">
-        <v>3995.302992113915</v>
+        <v>1059.640937194918</v>
       </c>
       <c r="Y36" t="n">
-        <v>3835.901032477745</v>
+        <v>900.2389775587484</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3492.670582288357</v>
+        <v>418.4655908195386</v>
       </c>
       <c r="C37" t="n">
-        <v>3492.670582288357</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="D37" t="n">
-        <v>3333.175937611267</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="E37" t="n">
-        <v>3268.407892592572</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="F37" t="n">
-        <v>3268.407892592572</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="G37" t="n">
-        <v>3268.407892592572</v>
+        <v>247.3722183812552</v>
       </c>
       <c r="H37" t="n">
-        <v>3268.407892592572</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I37" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J37" t="n">
-        <v>3203.021595739897</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K37" t="n">
-        <v>3399.833931055991</v>
+        <v>337.6757307508745</v>
       </c>
       <c r="L37" t="n">
-        <v>3713.809291444809</v>
+        <v>651.6510911396927</v>
       </c>
       <c r="M37" t="n">
-        <v>4060.091290838422</v>
+        <v>997.9330905333048</v>
       </c>
       <c r="N37" t="n">
-        <v>4396.592256943734</v>
+        <v>1334.434056638618</v>
       </c>
       <c r="O37" t="n">
-        <v>4707.565903112874</v>
+        <v>1645.407702807758</v>
       </c>
       <c r="P37" t="n">
-        <v>4957.234077402288</v>
+        <v>1895.075877097172</v>
       </c>
       <c r="Q37" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="R37" t="n">
-        <v>4984.63483798086</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S37" t="n">
-        <v>4804.710778399774</v>
+        <v>1955.241485542191</v>
       </c>
       <c r="T37" t="n">
-        <v>4566.747758214939</v>
+        <v>1717.278465357356</v>
       </c>
       <c r="U37" t="n">
-        <v>4283.969853980278</v>
+        <v>1434.500561122694</v>
       </c>
       <c r="V37" t="n">
-        <v>4010.084108919799</v>
+        <v>1160.614816062216</v>
       </c>
       <c r="W37" t="n">
-        <v>3731.014444428673</v>
+        <v>881.5451515710906</v>
       </c>
       <c r="X37" t="n">
-        <v>3492.670582288357</v>
+        <v>643.201289430774</v>
       </c>
       <c r="Y37" t="n">
-        <v>3492.670582288357</v>
+        <v>418.4655908195386</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2515.814690755404</v>
+        <v>2515.814690755402</v>
       </c>
       <c r="C38" t="n">
-        <v>2105.690100068674</v>
+        <v>2105.690100068673</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.226170161734</v>
+        <v>1701.226170161733</v>
       </c>
       <c r="E38" t="n">
-        <v>1286.885954678632</v>
+        <v>1286.88595467863</v>
       </c>
       <c r="F38" t="n">
-        <v>865.8555426323187</v>
+        <v>865.8555426323175</v>
       </c>
       <c r="G38" t="n">
-        <v>457.9546195784696</v>
+        <v>457.954619578469</v>
       </c>
       <c r="H38" t="n">
-        <v>155.5193335934946</v>
+        <v>155.5193335934937</v>
       </c>
       <c r="I38" t="n">
         <v>101.0644079186609</v>
       </c>
       <c r="J38" t="n">
-        <v>424.0737120051148</v>
+        <v>328.7561551516889</v>
       </c>
       <c r="K38" t="n">
-        <v>1065.38229747146</v>
+        <v>970.0647406180344</v>
       </c>
       <c r="L38" t="n">
-        <v>1905.939257494899</v>
+        <v>1810.621700641474</v>
       </c>
       <c r="M38" t="n">
-        <v>2824.644190545397</v>
+        <v>2729.326633691971</v>
       </c>
       <c r="N38" t="n">
-        <v>3722.515509117606</v>
+        <v>3627.197952264179</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.232917019966</v>
+        <v>4407.455757863262</v>
       </c>
       <c r="P38" t="n">
-        <v>4552.997555089751</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="Q38" t="n">
-        <v>4961.726268681345</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="R38" t="n">
         <v>5053.220395933046</v>
       </c>
       <c r="S38" t="n">
-        <v>4936.792810729661</v>
+        <v>4936.792810729662</v>
       </c>
       <c r="T38" t="n">
-        <v>4718.208099687426</v>
+        <v>4718.208099687427</v>
       </c>
       <c r="U38" t="n">
-        <v>4461.213796831202</v>
+        <v>4461.2137968312</v>
       </c>
       <c r="V38" t="n">
-        <v>4111.376242167682</v>
+        <v>4111.37624216768</v>
       </c>
       <c r="W38" t="n">
-        <v>3727.615941302851</v>
+        <v>3727.615941302849</v>
       </c>
       <c r="X38" t="n">
-        <v>3326.972543471803</v>
+        <v>3326.972543471802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2926.035870419893</v>
+        <v>2926.035870419892</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3695.597999842158</v>
+        <v>759.9359449231617</v>
       </c>
       <c r="C39" t="n">
-        <v>3561.602928591104</v>
+        <v>625.9408736721074</v>
       </c>
       <c r="D39" t="n">
-        <v>3444.705770810496</v>
+        <v>509.0437158914998</v>
       </c>
       <c r="E39" t="n">
-        <v>3324.212954802824</v>
+        <v>388.5508998838278</v>
       </c>
       <c r="F39" t="n">
-        <v>3215.253074985329</v>
+        <v>279.5910200663324</v>
       </c>
       <c r="G39" t="n">
-        <v>3108.705639489659</v>
+        <v>173.0435845706617</v>
       </c>
       <c r="H39" t="n">
-        <v>3042.233756228705</v>
+        <v>106.5717013097083</v>
       </c>
       <c r="I39" t="n">
-        <v>3036.726462837658</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J39" t="n">
-        <v>3036.726462837658</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="K39" t="n">
-        <v>3051.519091330089</v>
+        <v>626.93081763316</v>
       </c>
       <c r="L39" t="n">
-        <v>3090.170235029741</v>
+        <v>665.5819613328118</v>
       </c>
       <c r="M39" t="n">
-        <v>3935.036148821938</v>
+        <v>1618.491276179001</v>
       </c>
       <c r="N39" t="n">
-        <v>4921.5360542096</v>
+        <v>1678.671629995234</v>
       </c>
       <c r="O39" t="n">
-        <v>4967.590303709539</v>
+        <v>2088.425637404521</v>
       </c>
       <c r="P39" t="n">
-        <v>4996.723007319069</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="Q39" t="n">
-        <v>4996.723007319069</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="R39" t="n">
-        <v>5053.220395933046</v>
+        <v>2117.558341014051</v>
       </c>
       <c r="S39" t="n">
-        <v>4953.452920694769</v>
+        <v>2017.790865775773</v>
       </c>
       <c r="T39" t="n">
-        <v>4795.895356608099</v>
+        <v>1860.233301689103</v>
       </c>
       <c r="U39" t="n">
-        <v>4598.573669245659</v>
+        <v>1662.911614326663</v>
       </c>
       <c r="V39" t="n">
-        <v>4384.862142238693</v>
+        <v>1449.200087319697</v>
       </c>
       <c r="W39" t="n">
-        <v>4171.628973975022</v>
+        <v>1235.966919056026</v>
       </c>
       <c r="X39" t="n">
-        <v>3995.302992113915</v>
+        <v>1059.640937194918</v>
       </c>
       <c r="Y39" t="n">
-        <v>3835.901032477745</v>
+        <v>900.2389775587484</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3986.231831749099</v>
+        <v>266.5865945112336</v>
       </c>
       <c r="C40" t="n">
-        <v>3815.138459310816</v>
+        <v>266.5865945112336</v>
       </c>
       <c r="D40" t="n">
-        <v>3655.643814633726</v>
+        <v>266.5865945112336</v>
       </c>
       <c r="E40" t="n">
-        <v>3494.732999502045</v>
+        <v>265.6955338080697</v>
       </c>
       <c r="F40" t="n">
-        <v>3330.101873612637</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="G40" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="H40" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I40" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J40" t="n">
-        <v>3203.021595739897</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K40" t="n">
-        <v>3399.833931055991</v>
+        <v>337.6757307508745</v>
       </c>
       <c r="L40" t="n">
-        <v>3713.809291444809</v>
+        <v>651.6510911396927</v>
       </c>
       <c r="M40" t="n">
-        <v>4060.091290838422</v>
+        <v>997.9330905333048</v>
       </c>
       <c r="N40" t="n">
-        <v>4396.592256943734</v>
+        <v>1334.434056638618</v>
       </c>
       <c r="O40" t="n">
-        <v>4707.565903112874</v>
+        <v>1645.407702807758</v>
       </c>
       <c r="P40" t="n">
-        <v>4957.234077402288</v>
+        <v>1895.075877097172</v>
       </c>
       <c r="Q40" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="R40" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S40" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T40" t="n">
-        <v>4916.080763385822</v>
+        <v>1753.099175443095</v>
       </c>
       <c r="U40" t="n">
-        <v>4916.080763385822</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="V40" t="n">
-        <v>4916.080763385822</v>
+        <v>1196.435526147955</v>
       </c>
       <c r="W40" t="n">
-        <v>4637.011098894696</v>
+        <v>917.3658616568298</v>
       </c>
       <c r="X40" t="n">
-        <v>4398.66723675438</v>
+        <v>679.0219995165132</v>
       </c>
       <c r="Y40" t="n">
-        <v>4173.931538143144</v>
+        <v>454.2863009052779</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>2105.690100068674</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.226170161734</v>
+        <v>1701.226170161733</v>
       </c>
       <c r="E41" t="n">
-        <v>1286.885954678631</v>
+        <v>1286.88595467863</v>
       </c>
       <c r="F41" t="n">
-        <v>865.8555426323187</v>
+        <v>865.8555426323175</v>
       </c>
       <c r="G41" t="n">
         <v>457.954619578469</v>
@@ -7417,22 +7417,22 @@
         <v>1065.38229747146</v>
       </c>
       <c r="L41" t="n">
-        <v>1905.939257494899</v>
+        <v>1810.621700641474</v>
       </c>
       <c r="M41" t="n">
-        <v>2824.644190545397</v>
+        <v>2729.326633691971</v>
       </c>
       <c r="N41" t="n">
-        <v>3722.515509117606</v>
+        <v>3627.197952264179</v>
       </c>
       <c r="O41" t="n">
-        <v>4502.773314716689</v>
+        <v>4407.455757863262</v>
       </c>
       <c r="P41" t="n">
-        <v>4552.997555089751</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="Q41" t="n">
-        <v>4961.726268681345</v>
+        <v>5053.220395933046</v>
       </c>
       <c r="R41" t="n">
         <v>5053.220395933046</v>
@@ -7490,22 +7490,22 @@
         <v>101.0644079186609</v>
       </c>
       <c r="J42" t="n">
-        <v>101.0644079186609</v>
+        <v>334.868268698537</v>
       </c>
       <c r="K42" t="n">
-        <v>115.8570364110922</v>
+        <v>860.7346784130361</v>
       </c>
       <c r="L42" t="n">
-        <v>154.508180110744</v>
+        <v>899.3858221126879</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.417494956934</v>
+        <v>1852.295136958878</v>
       </c>
       <c r="N42" t="n">
-        <v>2042.371387904584</v>
+        <v>1912.47549077511</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.425637404521</v>
+        <v>1958.529740275048</v>
       </c>
       <c r="P42" t="n">
         <v>2117.558341014051</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1175.566726275372</v>
+        <v>540.4723395717116</v>
       </c>
       <c r="C43" t="n">
-        <v>1004.473353837088</v>
+        <v>540.4723395717116</v>
       </c>
       <c r="D43" t="n">
-        <v>844.9787091599983</v>
+        <v>380.9776948946216</v>
       </c>
       <c r="E43" t="n">
-        <v>684.0678940283177</v>
+        <v>380.9776948946216</v>
       </c>
       <c r="F43" t="n">
-        <v>519.436768138909</v>
+        <v>380.9776948946216</v>
       </c>
       <c r="G43" t="n">
-        <v>352.5575027500499</v>
+        <v>214.0984295057626</v>
       </c>
       <c r="H43" t="n">
-        <v>206.2496922874557</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I43" t="n">
         <v>101.0644079186609</v>
@@ -7596,25 +7596,25 @@
         <v>1991.062195627931</v>
       </c>
       <c r="S43" t="n">
-        <v>1826.345993420968</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T43" t="n">
-        <v>1826.345993420968</v>
+        <v>1753.099175443095</v>
       </c>
       <c r="U43" t="n">
-        <v>1826.345993420968</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="V43" t="n">
-        <v>1826.345993420968</v>
+        <v>1470.321271208433</v>
       </c>
       <c r="W43" t="n">
-        <v>1826.345993420968</v>
+        <v>1191.251606717308</v>
       </c>
       <c r="X43" t="n">
-        <v>1588.002131280652</v>
+        <v>952.9077445769913</v>
       </c>
       <c r="Y43" t="n">
-        <v>1363.266432669416</v>
+        <v>728.172045965756</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2515.814690755404</v>
+        <v>2515.814690755402</v>
       </c>
       <c r="C44" t="n">
-        <v>2105.690100068674</v>
+        <v>2105.690100068673</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.226170161734</v>
+        <v>1701.226170161733</v>
       </c>
       <c r="E44" t="n">
-        <v>1286.885954678632</v>
+        <v>1286.88595467863</v>
       </c>
       <c r="F44" t="n">
-        <v>865.8555426323187</v>
+        <v>865.8555426323175</v>
       </c>
       <c r="G44" t="n">
-        <v>457.9546195784696</v>
+        <v>457.954619578469</v>
       </c>
       <c r="H44" t="n">
-        <v>155.5193335934946</v>
+        <v>155.5193335934937</v>
       </c>
       <c r="I44" t="n">
         <v>101.0644079186609</v>
@@ -7657,10 +7657,10 @@
         <v>1905.939257494899</v>
       </c>
       <c r="M44" t="n">
-        <v>2824.644190545397</v>
+        <v>2229.103792848675</v>
       </c>
       <c r="N44" t="n">
-        <v>3722.515509117606</v>
+        <v>3126.975111420883</v>
       </c>
       <c r="O44" t="n">
         <v>3907.232917019966</v>
@@ -7675,10 +7675,10 @@
         <v>5053.220395933046</v>
       </c>
       <c r="S44" t="n">
-        <v>4936.792810729661</v>
+        <v>4936.792810729662</v>
       </c>
       <c r="T44" t="n">
-        <v>4718.208099687426</v>
+        <v>4718.208099687427</v>
       </c>
       <c r="U44" t="n">
         <v>4461.213796831202</v>
@@ -7687,13 +7687,13 @@
         <v>4111.376242167682</v>
       </c>
       <c r="W44" t="n">
-        <v>3727.615941302851</v>
+        <v>3727.615941302849</v>
       </c>
       <c r="X44" t="n">
-        <v>3326.972543471803</v>
+        <v>3326.972543471802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2926.035870419893</v>
+        <v>2926.035870419892</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>334.868268698537</v>
       </c>
       <c r="K45" t="n">
-        <v>349.6608971909682</v>
+        <v>860.7346784130361</v>
       </c>
       <c r="L45" t="n">
-        <v>388.31204089062</v>
+        <v>899.3858221126879</v>
       </c>
       <c r="M45" t="n">
-        <v>1341.22135573681</v>
+        <v>952.3294153632778</v>
       </c>
       <c r="N45" t="n">
-        <v>1580.646675981924</v>
+        <v>1012.50976917951</v>
       </c>
       <c r="O45" t="n">
-        <v>1626.700925481861</v>
+        <v>1058.564018679448</v>
       </c>
       <c r="P45" t="n">
-        <v>1655.833629091391</v>
+        <v>1703.119653430283</v>
       </c>
       <c r="Q45" t="n">
         <v>2061.060952400073</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4132.539642211694</v>
+        <v>504.5496146960692</v>
       </c>
       <c r="C46" t="n">
-        <v>3961.44626977341</v>
+        <v>333.4562422577857</v>
       </c>
       <c r="D46" t="n">
-        <v>3801.95162509632</v>
+        <v>333.4562422577857</v>
       </c>
       <c r="E46" t="n">
-        <v>3641.04080996464</v>
+        <v>265.6955338080697</v>
       </c>
       <c r="F46" t="n">
-        <v>3476.409684075231</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="G46" t="n">
-        <v>3309.530418686372</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="H46" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="I46" t="n">
-        <v>3163.222608223778</v>
+        <v>101.0644079186609</v>
       </c>
       <c r="J46" t="n">
-        <v>3203.021595739897</v>
+        <v>140.8633954347806</v>
       </c>
       <c r="K46" t="n">
-        <v>3399.833931055991</v>
+        <v>337.6757307508745</v>
       </c>
       <c r="L46" t="n">
-        <v>3713.809291444809</v>
+        <v>651.6510911396927</v>
       </c>
       <c r="M46" t="n">
-        <v>4060.091290838422</v>
+        <v>997.9330905333048</v>
       </c>
       <c r="N46" t="n">
-        <v>4396.592256943734</v>
+        <v>1334.434056638618</v>
       </c>
       <c r="O46" t="n">
-        <v>4707.565903112874</v>
+        <v>1645.407702807758</v>
       </c>
       <c r="P46" t="n">
-        <v>4957.234077402288</v>
+        <v>1895.075877097172</v>
       </c>
       <c r="Q46" t="n">
-        <v>5053.220395933046</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="R46" t="n">
-        <v>4984.63483798086</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="S46" t="n">
-        <v>4804.710778399774</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="T46" t="n">
-        <v>4566.747758214939</v>
+        <v>1991.062195627931</v>
       </c>
       <c r="U46" t="n">
-        <v>4566.747758214939</v>
+        <v>1708.284291393269</v>
       </c>
       <c r="V46" t="n">
-        <v>4544.975047216974</v>
+        <v>1434.398546332791</v>
       </c>
       <c r="W46" t="n">
-        <v>4544.975047216974</v>
+        <v>1155.328881841665</v>
       </c>
       <c r="X46" t="n">
-        <v>4544.975047216974</v>
+        <v>916.9850197013488</v>
       </c>
       <c r="Y46" t="n">
-        <v>4320.239348605738</v>
+        <v>692.2493210901135</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7990,16 +7990,16 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913797</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>524.3053858067748</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
@@ -8464,19 +8464,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>270.21439869122</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7562197346342</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.804568486136645</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>374.7931340003743</v>
+        <v>507.0089657429335</v>
       </c>
       <c r="L11" t="n">
         <v>488.2908268053945</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>477.2463266200732</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>111.1767809030163</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>35.86014123680781</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>9.964185045209327</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>507.1215213877718</v>
       </c>
       <c r="L12" t="n">
-        <v>483.022011077448</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.2753341920132</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>341.2470532690473</v>
+        <v>475.5441264306945</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>107.4461582668683</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7503370657491644</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>31.79023016464977</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.804568486136645</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>465.9974212704338</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>468.8240409917046</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>477.2463266200732</v>
       </c>
       <c r="P14" t="n">
-        <v>497.9271355189574</v>
+        <v>67.98789548431267</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>35.8601412368078</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>9.964185045209327</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>507.1215213877718</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>483.022011077448</v>
       </c>
       <c r="M15" t="n">
-        <v>348.7249379158007</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.2753341920131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>475.5441264306945</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>99.9682736201149</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7503370657491644</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>31.79023016464977</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>3.80456848613666</v>
       </c>
       <c r="K17" t="n">
-        <v>507.0089657429335</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>488.2908268053945</v>
       </c>
       <c r="M17" t="n">
-        <v>471.5292068889469</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>468.8240409917046</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>477.2463266200732</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.581575311978824</v>
+        <v>412.8262651320575</v>
       </c>
       <c r="R17" t="n">
-        <v>88.36500170703243</v>
+        <v>35.86014123680781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>9.964185045209327</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>483.022011077448</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>468.5851933492277</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>431.7381869049758</v>
+        <v>121.9310826275737</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>475.5441264306945</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>492.6365970270665</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>31.79023016464977</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.804568486136645</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>407.3255008376422</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>488.2908268053945</v>
       </c>
       <c r="M20" t="n">
-        <v>471.5292068889469</v>
+        <v>84.97266549032729</v>
       </c>
       <c r="N20" t="n">
         <v>468.8240409917046</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>477.2463266200732</v>
       </c>
       <c r="P20" t="n">
-        <v>497.9271355189574</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.581575311978824</v>
+        <v>1.581575311978838</v>
       </c>
       <c r="R20" t="n">
-        <v>35.8601412368078</v>
+        <v>35.86014123680781</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>9.964185045209327</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>387.2612659543448</v>
+        <v>507.1215213877718</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>468.5851933492277</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.2753341920131</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>475.5441264306945</v>
+        <v>90.35368767049641</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>492.6365970270665</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7503370657491644</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>31.79023016464977</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>31.17588806949779</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>275.8944601085934</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
         <v>853.701196452193</v>
@@ -9716,19 +9716,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>9.964185045209327</v>
+        <v>153.1930796959556</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>856.9896052076637</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7503370657491644</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>31.79023016464977</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>626.576019989218</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M26" t="n">
-        <v>877.4504173780091</v>
+        <v>275.8944601085934</v>
       </c>
       <c r="N26" t="n">
         <v>853.701196452193</v>
@@ -9895,7 +9895,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.581575311978824</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>378.360628164207</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>31.79023016464977</v>
+        <v>41.09463852332205</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O29" t="n">
-        <v>743.321953824879</v>
+        <v>141.7659965554625</v>
       </c>
       <c r="P29" t="n">
-        <v>26.59512108131722</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>9.964185045209327</v>
+        <v>9.964185045209334</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>402.2073483129468</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>654.7904528925693</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7503370657491644</v>
+        <v>0.7503370657491715</v>
       </c>
       <c r="R30" t="n">
-        <v>31.79023016464977</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7318453389136</v>
+        <v>31.17588806949779</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10366,7 +10366,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>26.59512108131722</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>9.964185045209334</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>245.4699242979411</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>181.055521645335</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.804568486136645</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>539.9907578628148</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.701196452193</v>
+        <v>252.1452391827768</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>9.964185045209334</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>883.6096354862805</v>
       </c>
       <c r="O36" t="n">
-        <v>563.756019961345</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7503370657491644</v>
+        <v>0.7503370657491715</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>233.796232357882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10837,16 +10837,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>141.7659965554625</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>1.581575311978838</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>35.86014123680781</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>9.964185045209327</v>
+        <v>9.964185045209334</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>799.9215359006134</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>367.3734928377272</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7503370657491644</v>
+        <v>0.7503370657491715</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>718.9943303444732</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>26.59512108131722</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>1.581575311978838</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>35.86014123680781</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>9.964185045209327</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>883.6096354862805</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>131.2079768984583</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7503370657491644</v>
+        <v>0.7503370657491715</v>
       </c>
       <c r="R42" t="n">
-        <v>31.79023016464977</v>
+        <v>31.79023016464978</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>275.8944601085934</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>141.7659965554625</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11378,25 +11378,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>181.055521645335</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>362.3072047120016</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23260,7 +23260,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>264.5145731610521</v>
       </c>
       <c r="H11" t="n">
         <v>299.4109331251255</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>115.2633093513507</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.4243598276621</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>160.8765043591418</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>98.12737136975181</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.89970237266495</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S13" t="n">
         <v>178.1248189852743</v>
@@ -23472,13 +23472,13 @@
         <v>235.5833899829873</v>
       </c>
       <c r="U13" t="n">
-        <v>116.8810850074221</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.1304158096454</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23512,7 +23512,7 @@
         <v>403.82191382331</v>
       </c>
       <c r="H14" t="n">
-        <v>299.4109331251255</v>
+        <v>69.39142906309911</v>
       </c>
       <c r="I14" t="n">
         <v>53.91037641808438</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.4243598276621</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.2794746116853</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,13 +23661,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.2104727349704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.89970237266495</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1248189852743</v>
+        <v>101.8247177264434</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>7.860805374671884</v>
+        <v>316.9800050845283</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.82191382331</v>
       </c>
       <c r="H17" t="n">
-        <v>299.4109331251255</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>53.91037641808438</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.2633093513507</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.3988639318134</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4243598276621</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.515473987254012</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,7 +23907,7 @@
         <v>165.2104727349704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I19" t="n">
         <v>104.1334315251068</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.18274875716227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>407.9897535138879</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>403.82191382331</v>
       </c>
       <c r="H20" t="n">
         <v>299.4109331251255</v>
@@ -24022,7 +24022,7 @@
         <v>115.2633093513507</v>
       </c>
       <c r="T20" t="n">
-        <v>216.3988639318134</v>
+        <v>176.0038407178361</v>
       </c>
       <c r="U20" t="n">
         <v>254.4243598276621</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.26523340885296</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S22" t="n">
-        <v>178.1248189852743</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>108.8061611266665</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>81.72589441257571</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24381,10 +24381,10 @@
         <v>165.2104727349704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I25" t="n">
-        <v>104.1334315251068</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S25" t="n">
-        <v>41.17957965915738</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.1850852451727</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,13 +24612,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>62.27330445683894</v>
       </c>
       <c r="G28" t="n">
         <v>165.2104727349704</v>
       </c>
       <c r="H28" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.2104727349704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.89970237266495</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S31" t="n">
-        <v>178.1248189852743</v>
+        <v>14.25785425862748</v>
       </c>
       <c r="T31" t="n">
-        <v>72.51434979809449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9501251923148</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>117.4415799120958</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.4189392136422</v>
+        <v>165.2104727349704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S34" t="n">
         <v>178.1248189852743</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>95.18134241185621</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25329,10 +25329,10 @@
         <v>165.2104727349704</v>
       </c>
       <c r="H37" t="n">
-        <v>144.8447323579683</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.6623160003925</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>158.4195568842315</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.2104727349704</v>
       </c>
       <c r="H40" t="n">
         <v>144.8447323579683</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.89970237266495</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S40" t="n">
         <v>178.1248189852743</v>
       </c>
       <c r="T40" t="n">
-        <v>99.81515376123531</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9501251923148</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.94105098673766</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.1334315251068</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.89970237266495</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S43" t="n">
-        <v>15.05577880038152</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T43" t="n">
-        <v>235.5833899829873</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9501251923148</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>92.2186056151449</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.2104727349704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.8447323579683</v>
       </c>
       <c r="I46" t="n">
         <v>104.1334315251068</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.89970237266496</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.1248189852743</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>235.5833899829873</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9501251923148</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>249.5919037218878</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512564.8546564933</v>
+        <v>512564.8546564932</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512564.8546564932</v>
+        <v>512564.8546564933</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822498.9858544896</v>
+        <v>822498.9858544895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822498.9858544897</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822498.9858544895</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822498.9858544894</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822498.9858544895</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822498.9858544894</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822498.9858544895</v>
+        <v>822498.9858544896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>374629.5039746511</v>
+      </c>
+      <c r="C2" t="n">
         <v>374629.5039746512</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>374629.5039746511</v>
       </c>
-      <c r="D2" t="n">
-        <v>374629.503974651</v>
-      </c>
       <c r="E2" t="n">
-        <v>227153.4336331823</v>
+        <v>227153.4336331822</v>
       </c>
       <c r="F2" t="n">
         <v>227153.4336331823</v>
       </c>
       <c r="G2" t="n">
-        <v>227153.4336331823</v>
+        <v>227153.4336331822</v>
       </c>
       <c r="H2" t="n">
-        <v>227153.4336331824</v>
+        <v>227153.4336331822</v>
       </c>
       <c r="I2" t="n">
-        <v>358815.8790197498</v>
+        <v>358815.8790197497</v>
       </c>
       <c r="J2" t="n">
         <v>358815.87901975</v>
       </c>
       <c r="K2" t="n">
-        <v>358815.8790197502</v>
+        <v>358815.8790197498</v>
       </c>
       <c r="L2" t="n">
-        <v>358815.8790197502</v>
+        <v>358815.8790197499</v>
       </c>
       <c r="M2" t="n">
         <v>358815.87901975</v>
       </c>
       <c r="N2" t="n">
-        <v>358815.8790197501</v>
+        <v>358815.8790197499</v>
       </c>
       <c r="O2" t="n">
+        <v>358815.8790197499</v>
+      </c>
+      <c r="P2" t="n">
         <v>358815.87901975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358815.8790197503</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197111.6885303602</v>
+        <v>197111.6885303603</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26426,40 +26426,40 @@
         <v>222716.4087914901</v>
       </c>
       <c r="E4" t="n">
+        <v>48826.84179620505</v>
+      </c>
+      <c r="F4" t="n">
         <v>48826.84179620506</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48826.84179620505</v>
       </c>
       <c r="G4" t="n">
         <v>48826.84179620505</v>
       </c>
       <c r="H4" t="n">
-        <v>48826.84179620505</v>
+        <v>48826.84179620506</v>
       </c>
       <c r="I4" t="n">
-        <v>90062.06909906091</v>
+        <v>90062.0690990609</v>
       </c>
       <c r="J4" t="n">
         <v>90062.0690990609</v>
       </c>
       <c r="K4" t="n">
+        <v>90062.06909906089</v>
+      </c>
+      <c r="L4" t="n">
         <v>90062.0690990609</v>
-      </c>
-      <c r="L4" t="n">
-        <v>90062.06909906087</v>
       </c>
       <c r="M4" t="n">
         <v>90062.06909906089</v>
       </c>
       <c r="N4" t="n">
-        <v>90062.06909906089</v>
+        <v>90062.06909906091</v>
       </c>
       <c r="O4" t="n">
-        <v>90062.06909906089</v>
+        <v>90062.06909906091</v>
       </c>
       <c r="P4" t="n">
-        <v>90062.06909906089</v>
+        <v>90062.0690990609</v>
       </c>
     </row>
     <row r="5">
@@ -26499,19 +26499,19 @@
         <v>81250.6564485509</v>
       </c>
       <c r="L5" t="n">
-        <v>81250.65644855092</v>
+        <v>81250.6564485509</v>
       </c>
       <c r="M5" t="n">
-        <v>81250.65644855092</v>
+        <v>81250.6564485509</v>
       </c>
       <c r="N5" t="n">
-        <v>81250.65644855092</v>
+        <v>81250.6564485509</v>
       </c>
       <c r="O5" t="n">
-        <v>81250.65644855092</v>
+        <v>81250.6564485509</v>
       </c>
       <c r="P5" t="n">
-        <v>81250.65644855092</v>
+        <v>81250.6564485509</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88411.47978845047</v>
+        <v>-88411.47978845061</v>
       </c>
       <c r="C6" t="n">
+        <v>86544.0301046636</v>
+      </c>
+      <c r="D6" t="n">
         <v>86544.03010466346</v>
       </c>
-      <c r="D6" t="n">
-        <v>86544.03010466343</v>
-      </c>
       <c r="E6" t="n">
-        <v>-21548.33523507405</v>
+        <v>-22189.53554090661</v>
       </c>
       <c r="F6" t="n">
-        <v>142143.4203281111</v>
+        <v>141502.2200222786</v>
       </c>
       <c r="G6" t="n">
-        <v>142143.4203281111</v>
+        <v>141502.2200222785</v>
       </c>
       <c r="H6" t="n">
-        <v>142143.4203281112</v>
+        <v>141502.2200222785</v>
       </c>
       <c r="I6" t="n">
-        <v>-9608.535058222202</v>
+        <v>-9677.289949330687</v>
       </c>
       <c r="J6" t="n">
-        <v>50908.35266624327</v>
+        <v>50839.59777513495</v>
       </c>
       <c r="K6" t="n">
-        <v>187503.1534721384</v>
+        <v>187434.3985810298</v>
       </c>
       <c r="L6" t="n">
-        <v>187503.1534721385</v>
+        <v>187434.3985810299</v>
       </c>
       <c r="M6" t="n">
-        <v>187503.1534721382</v>
+        <v>187434.39858103</v>
       </c>
       <c r="N6" t="n">
-        <v>187503.1534721383</v>
+        <v>187434.3985810298</v>
       </c>
       <c r="O6" t="n">
-        <v>187503.1534721382</v>
+        <v>187434.3985810298</v>
       </c>
       <c r="P6" t="n">
-        <v>187503.1534721385</v>
+        <v>187434.3985810299</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="F3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="G3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="I3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="J3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="K3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="L3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="M3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="N3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="O3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="P3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
     </row>
     <row r="4">
@@ -26810,13 +26810,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1263.305098983261</v>
+        <v>1263.305098983262</v>
       </c>
       <c r="J4" t="n">
-        <v>1263.305098983261</v>
+        <v>1263.305098983262</v>
       </c>
       <c r="K4" t="n">
-        <v>1263.305098983261</v>
+        <v>1263.305098983262</v>
       </c>
       <c r="L4" t="n">
         <v>1263.305098983262</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7480013930557</v>
+        <v>203.7480013930556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>741.2415286132356</v>
+        <v>741.241528613236</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>234.9848782552364</v>
+        <v>341.9552247138265</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.0998012612095</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>216.8127561493822</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>103.6834669398974</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>103.4314615462791</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>311.7347421217905</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>146.4239395205296</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H11" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I11" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J11" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K11" t="n">
         <v>104.1909943003092</v>
@@ -31770,7 +31770,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N11" t="n">
         <v>146.1518201349403</v>
@@ -31782,19 +31782,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R11" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S11" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,19 +31834,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I12" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L12" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M12" t="n">
         <v>111.0426607592153</v>
@@ -31858,10 +31858,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R12" t="n">
         <v>27.20996894075563</v>
@@ -31873,7 +31873,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H13" t="n">
         <v>3.266648284629648</v>
@@ -31922,22 +31922,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M13" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O13" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q13" t="n">
         <v>30.7659482103514</v>
@@ -31946,7 +31946,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S13" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T13" t="n">
         <v>1.569861650077641</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H14" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J14" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K14" t="n">
         <v>104.1909943003092</v>
@@ -32007,7 +32007,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N14" t="n">
         <v>146.1518201349403</v>
@@ -32019,19 +32019,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R14" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S14" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,19 +32071,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I15" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L15" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M15" t="n">
         <v>111.0426607592153</v>
@@ -32095,10 +32095,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R15" t="n">
         <v>27.20996894075563</v>
@@ -32110,7 +32110,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H16" t="n">
         <v>3.266648284629648</v>
@@ -32159,22 +32159,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K16" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M16" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O16" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q16" t="n">
         <v>30.7659482103514</v>
@@ -32183,7 +32183,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S16" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T16" t="n">
         <v>1.569861650077641</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H17" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J17" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K17" t="n">
         <v>104.1909943003092</v>
@@ -32244,7 +32244,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M17" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N17" t="n">
         <v>146.1518201349403</v>
@@ -32256,19 +32256,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R17" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S17" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,19 +32308,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I18" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L18" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M18" t="n">
         <v>111.0426607592153</v>
@@ -32332,10 +32332,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P18" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R18" t="n">
         <v>27.20996894075563</v>
@@ -32347,7 +32347,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H19" t="n">
         <v>3.266648284629648</v>
@@ -32396,22 +32396,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M19" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O19" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q19" t="n">
         <v>30.7659482103514</v>
@@ -32420,7 +32420,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S19" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T19" t="n">
         <v>1.569861650077641</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H20" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J20" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K20" t="n">
         <v>104.1909943003092</v>
@@ -32481,7 +32481,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N20" t="n">
         <v>146.1518201349403</v>
@@ -32493,19 +32493,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R20" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S20" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,19 +32545,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I21" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L21" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M21" t="n">
         <v>111.0426607592153</v>
@@ -32569,10 +32569,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R21" t="n">
         <v>27.20996894075563</v>
@@ -32584,7 +32584,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H22" t="n">
         <v>3.266648284629648</v>
@@ -32633,22 +32633,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K22" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M22" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O22" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q22" t="n">
         <v>30.7659482103514</v>
@@ -32657,7 +32657,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S22" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T22" t="n">
         <v>1.569861650077641</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H23" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I23" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J23" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K23" t="n">
         <v>104.1909943003092</v>
@@ -32718,7 +32718,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M23" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N23" t="n">
         <v>146.1518201349403</v>
@@ -32730,19 +32730,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R23" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S23" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T23" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,19 +32782,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H24" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I24" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J24" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K24" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L24" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M24" t="n">
         <v>111.0426607592153</v>
@@ -32806,10 +32806,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P24" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R24" t="n">
         <v>27.20996894075563</v>
@@ -32821,7 +32821,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H25" t="n">
         <v>3.266648284629648</v>
@@ -32870,22 +32870,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K25" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L25" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M25" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N25" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O25" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P25" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q25" t="n">
         <v>30.7659482103514</v>
@@ -32894,7 +32894,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S25" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T25" t="n">
         <v>1.569861650077641</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H26" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I26" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J26" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K26" t="n">
         <v>104.1909943003092</v>
@@ -32955,7 +32955,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M26" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N26" t="n">
         <v>146.1518201349403</v>
@@ -32967,19 +32967,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R26" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S26" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T26" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,19 +33019,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H27" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I27" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J27" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K27" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L27" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M27" t="n">
         <v>111.0426607592153</v>
@@ -33043,10 +33043,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P27" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R27" t="n">
         <v>27.20996894075563</v>
@@ -33058,7 +33058,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H28" t="n">
         <v>3.266648284629648</v>
@@ -33107,22 +33107,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K28" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L28" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M28" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N28" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O28" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P28" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q28" t="n">
         <v>30.7659482103514</v>
@@ -33131,7 +33131,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S28" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T28" t="n">
         <v>1.569861650077641</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H29" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I29" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J29" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K29" t="n">
         <v>104.1909943003092</v>
@@ -33192,7 +33192,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M29" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N29" t="n">
         <v>146.1518201349403</v>
@@ -33204,19 +33204,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q29" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R29" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S29" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T29" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,19 +33256,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H30" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I30" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J30" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K30" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L30" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M30" t="n">
         <v>111.0426607592153</v>
@@ -33280,10 +33280,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P30" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R30" t="n">
         <v>27.20996894075563</v>
@@ -33295,7 +33295,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H31" t="n">
         <v>3.266648284629648</v>
@@ -33344,22 +33344,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K31" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L31" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M31" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N31" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O31" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P31" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q31" t="n">
         <v>30.7659482103514</v>
@@ -33368,7 +33368,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S31" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T31" t="n">
         <v>1.569861650077641</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H32" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I32" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J32" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K32" t="n">
         <v>104.1909943003092</v>
@@ -33429,7 +33429,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M32" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N32" t="n">
         <v>146.1518201349403</v>
@@ -33441,19 +33441,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q32" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R32" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S32" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T32" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,19 +33493,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H33" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I33" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J33" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K33" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L33" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M33" t="n">
         <v>111.0426607592153</v>
@@ -33517,10 +33517,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P33" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R33" t="n">
         <v>27.20996894075563</v>
@@ -33532,7 +33532,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H34" t="n">
         <v>3.266648284629648</v>
@@ -33581,22 +33581,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K34" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L34" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M34" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N34" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O34" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P34" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q34" t="n">
         <v>30.7659482103514</v>
@@ -33605,7 +33605,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S34" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T34" t="n">
         <v>1.569861650077641</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H35" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I35" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J35" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K35" t="n">
         <v>104.1909943003092</v>
@@ -33666,7 +33666,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M35" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N35" t="n">
         <v>146.1518201349403</v>
@@ -33678,19 +33678,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R35" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S35" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T35" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,19 +33730,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H36" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I36" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J36" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K36" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L36" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M36" t="n">
         <v>111.0426607592153</v>
@@ -33754,10 +33754,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P36" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R36" t="n">
         <v>27.20996894075563</v>
@@ -33769,7 +33769,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H37" t="n">
         <v>3.266648284629648</v>
@@ -33818,22 +33818,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K37" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L37" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M37" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N37" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O37" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P37" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q37" t="n">
         <v>30.7659482103514</v>
@@ -33842,7 +33842,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S37" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T37" t="n">
         <v>1.569861650077641</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H38" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I38" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J38" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K38" t="n">
         <v>104.1909943003092</v>
@@ -33903,7 +33903,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M38" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N38" t="n">
         <v>146.1518201349403</v>
@@ -33915,19 +33915,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R38" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S38" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T38" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,19 +33967,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H39" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I39" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J39" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K39" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L39" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M39" t="n">
         <v>111.0426607592153</v>
@@ -33991,10 +33991,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P39" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R39" t="n">
         <v>27.20996894075563</v>
@@ -34006,7 +34006,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H40" t="n">
         <v>3.266648284629648</v>
@@ -34055,22 +34055,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K40" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L40" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M40" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N40" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O40" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P40" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q40" t="n">
         <v>30.7659482103514</v>
@@ -34079,7 +34079,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S40" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T40" t="n">
         <v>1.569861650077641</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H41" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I41" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J41" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K41" t="n">
         <v>104.1909943003092</v>
@@ -34140,7 +34140,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M41" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N41" t="n">
         <v>146.1518201349403</v>
@@ -34152,19 +34152,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R41" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S41" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T41" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,19 +34204,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H42" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I42" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J42" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K42" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L42" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M42" t="n">
         <v>111.0426607592153</v>
@@ -34228,10 +34228,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P42" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R42" t="n">
         <v>27.20996894075563</v>
@@ -34243,7 +34243,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H43" t="n">
         <v>3.266648284629648</v>
@@ -34292,22 +34292,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K43" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L43" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M43" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N43" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O43" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P43" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q43" t="n">
         <v>30.7659482103514</v>
@@ -34316,7 +34316,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S43" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T43" t="n">
         <v>1.569861650077641</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8190874427861528</v>
+        <v>0.8190874427861526</v>
       </c>
       <c r="H44" t="n">
-        <v>8.38847927343369</v>
+        <v>8.388479273433688</v>
       </c>
       <c r="I44" t="n">
-        <v>31.57786863801319</v>
+        <v>31.57786863801318</v>
       </c>
       <c r="J44" t="n">
-        <v>69.5190228471713</v>
+        <v>69.51902284717129</v>
       </c>
       <c r="K44" t="n">
         <v>104.1909943003092</v>
@@ -34377,7 +34377,7 @@
         <v>129.2581416274759</v>
       </c>
       <c r="M44" t="n">
-        <v>143.8245879381242</v>
+        <v>143.8245879381241</v>
       </c>
       <c r="N44" t="n">
         <v>146.1518201349403</v>
@@ -34389,19 +34389,19 @@
         <v>117.7857981319523</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.45222908717322</v>
+        <v>88.45222908717321</v>
       </c>
       <c r="R44" t="n">
-        <v>51.45200157791572</v>
+        <v>51.45200157791571</v>
       </c>
       <c r="S44" t="n">
-        <v>18.66495510248948</v>
+        <v>18.66495510248947</v>
       </c>
       <c r="T44" t="n">
-        <v>3.585555280796386</v>
+        <v>3.585555280796385</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06552699542289221</v>
+        <v>0.0655269954228922</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,19 +34441,19 @@
         <v>0.4382504180907235</v>
       </c>
       <c r="H45" t="n">
-        <v>4.232576406297252</v>
+        <v>4.232576406297251</v>
       </c>
       <c r="I45" t="n">
         <v>15.08888500882535</v>
       </c>
       <c r="J45" t="n">
-        <v>41.40505375479069</v>
+        <v>41.40505375479068</v>
       </c>
       <c r="K45" t="n">
-        <v>70.76783176686916</v>
+        <v>70.76783176686915</v>
       </c>
       <c r="L45" t="n">
-        <v>95.15608310342662</v>
+        <v>95.15608310342661</v>
       </c>
       <c r="M45" t="n">
         <v>111.0426607592153</v>
@@ -34465,10 +34465,10 @@
         <v>104.270922939331</v>
       </c>
       <c r="P45" t="n">
-        <v>83.68660834576282</v>
+        <v>83.68660834576281</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.94228143908956</v>
+        <v>55.94228143908955</v>
       </c>
       <c r="R45" t="n">
         <v>27.20996894075563</v>
@@ -34480,7 +34480,7 @@
         <v>1.766456729058661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02883226434807393</v>
+        <v>0.02883226434807392</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3674144287415758</v>
+        <v>0.3674144287415757</v>
       </c>
       <c r="H46" t="n">
         <v>3.266648284629648</v>
@@ -34529,22 +34529,22 @@
         <v>25.9762001120294</v>
       </c>
       <c r="K46" t="n">
-        <v>42.68687635743034</v>
+        <v>42.68687635743033</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62450516036119</v>
+        <v>54.62450516036118</v>
       </c>
       <c r="M46" t="n">
-        <v>57.59388177082718</v>
+        <v>57.59388177082717</v>
       </c>
       <c r="N46" t="n">
-        <v>56.22442799097226</v>
+        <v>56.22442799097225</v>
       </c>
       <c r="O46" t="n">
-        <v>51.93235943703656</v>
+        <v>51.93235943703655</v>
       </c>
       <c r="P46" t="n">
-        <v>44.43710509070838</v>
+        <v>44.43710509070837</v>
       </c>
       <c r="Q46" t="n">
         <v>30.7659482103514</v>
@@ -34553,7 +34553,7 @@
         <v>16.52028876868939</v>
       </c>
       <c r="S46" t="n">
-        <v>6.40303145361455</v>
+        <v>6.403031453614549</v>
       </c>
       <c r="T46" t="n">
         <v>1.569861650077641</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538798</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>176.5650354103359</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5650354103359</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>326.2720243297514</v>
       </c>
       <c r="K11" t="n">
-        <v>389.8477386274663</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>50.5343634810787</v>
+        <v>50.53436348107867</v>
       </c>
       <c r="N11" t="n">
-        <v>53.239529378321</v>
+        <v>53.23952937832097</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>44.81724374995237</v>
       </c>
       <c r="P11" t="n">
-        <v>24.13643485106819</v>
+        <v>135.3132157540845</v>
       </c>
       <c r="Q11" t="n">
         <v>412.8572864561551</v>
       </c>
       <c r="R11" t="n">
-        <v>92.41831035525391</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>236.1655159392687</v>
       </c>
       <c r="K12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L12" t="n">
+        <v>39.04155929257756</v>
+      </c>
+      <c r="M12" t="n">
+        <v>53.47837702079789</v>
+      </c>
+      <c r="N12" t="n">
+        <v>60.78823617801233</v>
+      </c>
+      <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M12" t="n">
-        <v>53.4783770207979</v>
-      </c>
-      <c r="N12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O12" t="n">
-        <v>387.7664972083783</v>
-      </c>
       <c r="P12" t="n">
-        <v>29.42697334295907</v>
+        <v>136.8731316098273</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>409.3205285946283</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.06806930704845</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K13" t="n">
         <v>198.8003387031252</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>326.2720243297514</v>
       </c>
       <c r="K14" t="n">
-        <v>15.05460462709205</v>
+        <v>15.05460462709203</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7701648350649</v>
+        <v>33.77274356463109</v>
       </c>
       <c r="M14" t="n">
-        <v>50.5343634810787</v>
+        <v>50.53436348107867</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>44.81724374995237</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>92.12433033538085</v>
       </c>
       <c r="Q14" t="n">
         <v>412.8572864561551</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>92.41831035525391</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>236.1655159392687</v>
       </c>
       <c r="K15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L15" t="n">
-        <v>39.04155929257757</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>402.2033149365986</v>
+        <v>53.47837702079789</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P15" t="n">
-        <v>29.42697334295907</v>
+        <v>129.395246963074</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>409.3205285946283</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.06806930704845</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K16" t="n">
         <v>198.8003387031252</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>326.2720243297514</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>15.05460462709203</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
+        <v>50.53436348107867</v>
+      </c>
+      <c r="N17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N17" t="n">
-        <v>53.239529378321</v>
-      </c>
       <c r="O17" t="n">
-        <v>44.81724374995237</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>24.13643485106819</v>
+        <v>24.13643485106817</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>411.2446898200786</v>
       </c>
       <c r="R17" t="n">
-        <v>52.50486047022463</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>236.1655159392687</v>
       </c>
       <c r="K18" t="n">
-        <v>14.94204898225377</v>
+        <v>14.94204898225376</v>
       </c>
       <c r="L18" t="n">
+        <v>39.04155929257756</v>
+      </c>
+      <c r="M18" t="n">
+        <v>53.47837702079789</v>
+      </c>
+      <c r="N18" t="n">
+        <v>182.7193188055861</v>
+      </c>
+      <c r="O18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N18" t="n">
-        <v>492.5264230829882</v>
-      </c>
-      <c r="O18" t="n">
-        <v>46.51944393933105</v>
-      </c>
-      <c r="P18" t="n">
-        <v>29.42697334295907</v>
       </c>
       <c r="Q18" t="n">
         <v>409.3205285946283</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.06806930704845</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K19" t="n">
         <v>198.8003387031252</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>326.2720243297514</v>
       </c>
       <c r="K20" t="n">
-        <v>422.3801054647342</v>
+        <v>15.05460462709203</v>
       </c>
       <c r="L20" t="n">
-        <v>33.77274356463109</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>135.507028971406</v>
       </c>
       <c r="N20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>44.81724374995237</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>24.13643485106817</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>236.1655159392687</v>
       </c>
       <c r="K21" t="n">
-        <v>402.2033149365986</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L21" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M21" t="n">
+        <v>53.47837702079789</v>
+      </c>
+      <c r="N21" t="n">
+        <v>60.78823617801233</v>
+      </c>
+      <c r="O21" t="n">
+        <v>136.8731316098275</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P21" t="n">
-        <v>29.42697334295907</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>409.3205285946283</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.06806930704845</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K22" t="n">
         <v>198.8003387031252</v>
@@ -36360,13 +36360,13 @@
         <v>326.2720243297514</v>
       </c>
       <c r="K23" t="n">
-        <v>647.7864499660056</v>
+        <v>46.23049269658982</v>
       </c>
       <c r="L23" t="n">
         <v>849.0474343671102</v>
       </c>
       <c r="M23" t="n">
-        <v>326.4288235896721</v>
+        <v>927.9847808590878</v>
       </c>
       <c r="N23" t="n">
         <v>906.940725830514</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>143.2288946507463</v>
       </c>
       <c r="K24" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L24" t="n">
-        <v>39.04155929257757</v>
+        <v>762.9219133249298</v>
       </c>
       <c r="M24" t="n">
-        <v>910.4679822284616</v>
+        <v>53.47837702079789</v>
       </c>
       <c r="N24" t="n">
-        <v>996.4645508966289</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O24" t="n">
-        <v>46.51944393933105</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P24" t="n">
-        <v>29.42697334295907</v>
+        <v>29.42697334295906</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>409.3205285946283</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K25" t="n">
         <v>198.8003387031252</v>
@@ -36600,10 +36600,10 @@
         <v>647.7864499660056</v>
       </c>
       <c r="L26" t="n">
-        <v>660.3487635538492</v>
+        <v>849.0474343671102</v>
       </c>
       <c r="M26" t="n">
-        <v>927.9847808590878</v>
+        <v>326.4288235896721</v>
       </c>
       <c r="N26" t="n">
         <v>906.940725830514</v>
@@ -36615,7 +36615,7 @@
         <v>652.2875132018023</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>412.8572864561551</v>
       </c>
       <c r="R26" t="n">
         <v>92.41831035525391</v>
@@ -36676,28 +36676,28 @@
         <v>236.1655159392687</v>
       </c>
       <c r="K27" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L27" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M27" t="n">
-        <v>53.4783770207979</v>
+        <v>53.47837702079789</v>
       </c>
       <c r="N27" t="n">
-        <v>439.1488643422193</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O27" t="n">
-        <v>815.3386911675071</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P27" t="n">
-        <v>29.42697334295907</v>
+        <v>651.0662977281164</v>
       </c>
       <c r="Q27" t="n">
         <v>409.3205285946283</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.304408358672266</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K28" t="n">
         <v>198.8003387031252</v>
@@ -36846,10 +36846,10 @@
         <v>906.940725830514</v>
       </c>
       <c r="O29" t="n">
-        <v>788.1391975748313</v>
+        <v>186.5832403054149</v>
       </c>
       <c r="P29" t="n">
-        <v>50.7315559323854</v>
+        <v>652.2875132018023</v>
       </c>
       <c r="Q29" t="n">
         <v>412.8572864561551</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>531.1781916308073</v>
+        <v>14.94204898225376</v>
       </c>
       <c r="L30" t="n">
-        <v>39.04155929257757</v>
+        <v>441.2489076055244</v>
       </c>
       <c r="M30" t="n">
-        <v>53.4783770207979</v>
+        <v>53.47837702079789</v>
       </c>
       <c r="N30" t="n">
-        <v>60.78823617801235</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O30" t="n">
-        <v>701.3098968319003</v>
+        <v>815.3386911675071</v>
       </c>
       <c r="P30" t="n">
         <v>651.0662977281164</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K31" t="n">
         <v>198.8003387031252</v>
@@ -37071,7 +37071,7 @@
         <v>326.2720243297514</v>
       </c>
       <c r="K32" t="n">
-        <v>647.7864499660056</v>
+        <v>46.23049269658982</v>
       </c>
       <c r="L32" t="n">
         <v>849.0474343671102</v>
@@ -37086,7 +37086,7 @@
         <v>788.1391975748313</v>
       </c>
       <c r="P32" t="n">
-        <v>50.7315559323854</v>
+        <v>652.2875132018023</v>
       </c>
       <c r="Q32" t="n">
         <v>412.8572864561551</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>236.1655159392687</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L33" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M33" t="n">
-        <v>962.5346614607978</v>
+        <v>298.948301318739</v>
       </c>
       <c r="N33" t="n">
-        <v>60.78823617801235</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O33" t="n">
-        <v>227.5749655846661</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P33" t="n">
-        <v>29.42697334295907</v>
+        <v>651.0662977281164</v>
       </c>
       <c r="Q33" t="n">
         <v>409.3205285946283</v>
       </c>
       <c r="R33" t="n">
-        <v>57.06806930704846</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K34" t="n">
         <v>198.8003387031252</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>326.2720243297514</v>
       </c>
       <c r="K35" t="n">
         <v>647.7864499660056</v>
       </c>
       <c r="L35" t="n">
-        <v>573.7635014274459</v>
+        <v>849.0474343671102</v>
       </c>
       <c r="M35" t="n">
         <v>927.9847808590878</v>
       </c>
       <c r="N35" t="n">
-        <v>906.940725830514</v>
+        <v>305.3847685610978</v>
       </c>
       <c r="O35" t="n">
         <v>788.1391975748313</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>236.1655159392687</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.94204898225377</v>
+        <v>14.94204898225376</v>
       </c>
       <c r="L36" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M36" t="n">
-        <v>53.4783770207979</v>
+        <v>962.5346614607978</v>
       </c>
       <c r="N36" t="n">
-        <v>996.4645508966289</v>
+        <v>944.3978716642928</v>
       </c>
       <c r="O36" t="n">
-        <v>610.2754639006761</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P36" t="n">
-        <v>29.42697334295907</v>
+        <v>29.42697334295906</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.06806930704846</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K37" t="n">
         <v>198.8003387031252</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>326.2720243297514</v>
+        <v>229.9916638717454</v>
       </c>
       <c r="K38" t="n">
         <v>647.7864499660056</v>
@@ -37557,16 +37557,16 @@
         <v>906.940725830514</v>
       </c>
       <c r="O38" t="n">
-        <v>186.5832403054149</v>
+        <v>788.1391975748313</v>
       </c>
       <c r="P38" t="n">
         <v>652.2875132018023</v>
       </c>
       <c r="Q38" t="n">
-        <v>412.8572864561551</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.41831035525391</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L39" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M39" t="n">
-        <v>853.3999129214113</v>
+        <v>962.5346614607978</v>
       </c>
       <c r="N39" t="n">
-        <v>996.4645508966289</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O39" t="n">
-        <v>46.51944393933105</v>
+        <v>413.8929367770582</v>
       </c>
       <c r="P39" t="n">
-        <v>29.42697334295907</v>
+        <v>29.42697334295906</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.06806930704846</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K40" t="n">
         <v>198.8003387031252</v>
@@ -37785,7 +37785,7 @@
         <v>647.7864499660056</v>
       </c>
       <c r="L41" t="n">
-        <v>849.0474343671102</v>
+        <v>752.7670739091043</v>
       </c>
       <c r="M41" t="n">
         <v>927.9847808590878</v>
@@ -37797,13 +37797,13 @@
         <v>788.1391975748313</v>
       </c>
       <c r="P41" t="n">
-        <v>50.7315559323854</v>
+        <v>652.2875132018023</v>
       </c>
       <c r="Q41" t="n">
-        <v>412.8572864561551</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>92.41831035525391</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>236.1655159392687</v>
       </c>
       <c r="K42" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L42" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M42" t="n">
         <v>962.5346614607978</v>
       </c>
       <c r="N42" t="n">
-        <v>944.3978716642928</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O42" t="n">
-        <v>46.51944393933105</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P42" t="n">
-        <v>29.42697334295907</v>
+        <v>160.6349502414174</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K43" t="n">
         <v>198.8003387031252</v>
@@ -38025,13 +38025,13 @@
         <v>849.0474343671102</v>
       </c>
       <c r="M44" t="n">
-        <v>927.9847808590878</v>
+        <v>326.4288235896721</v>
       </c>
       <c r="N44" t="n">
         <v>906.940725830514</v>
       </c>
       <c r="O44" t="n">
-        <v>186.5832403054149</v>
+        <v>788.1391975748313</v>
       </c>
       <c r="P44" t="n">
         <v>652.2875132018023</v>
@@ -38098,28 +38098,28 @@
         <v>236.1655159392687</v>
       </c>
       <c r="K45" t="n">
-        <v>14.94204898225377</v>
+        <v>531.1781916308072</v>
       </c>
       <c r="L45" t="n">
-        <v>39.04155929257757</v>
+        <v>39.04155929257756</v>
       </c>
       <c r="M45" t="n">
-        <v>962.5346614607978</v>
+        <v>53.47837702079789</v>
       </c>
       <c r="N45" t="n">
-        <v>241.8437578233473</v>
+        <v>60.78823617801233</v>
       </c>
       <c r="O45" t="n">
-        <v>46.51944393933105</v>
+        <v>46.51944393933103</v>
       </c>
       <c r="P45" t="n">
-        <v>29.42697334295907</v>
+        <v>651.0662977281164</v>
       </c>
       <c r="Q45" t="n">
-        <v>409.3205285946283</v>
+        <v>361.5568676462524</v>
       </c>
       <c r="R45" t="n">
-        <v>57.06806930704846</v>
+        <v>57.06806930704845</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.20099749102993</v>
+        <v>40.20099749102992</v>
       </c>
       <c r="K46" t="n">
         <v>198.8003387031252</v>
